--- a/public/kdb_dream_15-70.xlsx
+++ b/public/kdb_dream_15-70.xlsx
@@ -5,24 +5,24 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\서지후\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\개미남\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E1FBBA-F530-4C5A-B680-8C3CA3DA783D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C950691C-1D7B-4A3E-952A-50B6D10F9F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="150" windowWidth="22965" windowHeight="14970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26100" yWindow="24" windowWidth="25644" windowHeight="15660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="30k" sheetId="1" r:id="rId1"/>
     <sheet name="50k" sheetId="2" r:id="rId2"/>
     <sheet name="100k" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="14">
   <si>
     <t>성별</t>
   </si>
@@ -61,6 +61,10 @@
   </si>
   <si>
     <t>가입불가(연금개시연령 80세 초과)</t>
+  </si>
+  <si>
+    <t>20년 보증기간 총액</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -440,23 +444,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I337"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="K84" sqref="K84"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.19921875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.8984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.796875" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.5" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -476,7 +480,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -485,7 +489,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -511,7 +515,7 @@
         <v>327516000</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -537,7 +541,7 @@
         <v>441402858</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -563,7 +567,7 @@
         <v>690110614</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -589,7 +593,7 @@
         <v>323647925</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -615,7 +619,7 @@
         <v>437163320</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -641,7 +645,7 @@
         <v>678703827</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -667,7 +671,7 @@
         <v>319744744</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -693,7 +697,7 @@
         <v>432834529</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -719,7 +723,7 @@
         <v>667297040</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -745,7 +749,7 @@
         <v>315806457</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
@@ -771,7 +775,7 @@
         <v>428416484</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
@@ -797,7 +801,7 @@
         <v>655890253</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -823,7 +827,7 @@
         <v>311833063</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
@@ -849,7 +853,7 @@
         <v>423909185</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
@@ -875,7 +879,7 @@
         <v>644483466</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
@@ -901,7 +905,7 @@
         <v>307824564</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
@@ -927,7 +931,7 @@
         <v>419312633</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
@@ -953,7 +957,7 @@
         <v>633076679</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>9</v>
       </c>
@@ -979,7 +983,7 @@
         <v>303780959</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>9</v>
       </c>
@@ -1005,7 +1009,7 @@
         <v>414626828</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>9</v>
       </c>
@@ -1031,7 +1035,7 @@
         <v>621669892</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>9</v>
       </c>
@@ -1057,7 +1061,7 @@
         <v>299702248</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>9</v>
       </c>
@@ -1083,7 +1087,7 @@
         <v>409851769</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>9</v>
       </c>
@@ -1109,7 +1113,7 @@
         <v>610263105</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>9</v>
       </c>
@@ -1135,7 +1139,7 @@
         <v>295588430</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>9</v>
       </c>
@@ -1161,7 +1165,7 @@
         <v>404987457</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>9</v>
       </c>
@@ -1187,7 +1191,7 @@
         <v>598856318</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>9</v>
       </c>
@@ -1213,7 +1217,7 @@
         <v>291439507</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>9</v>
       </c>
@@ -1239,7 +1243,7 @@
         <v>400033891</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>9</v>
       </c>
@@ -1265,7 +1269,7 @@
         <v>587449531</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>9</v>
       </c>
@@ -1291,7 +1295,7 @@
         <v>287255478</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>9</v>
       </c>
@@ -1317,7 +1321,7 @@
         <v>394991072</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>9</v>
       </c>
@@ -1343,7 +1347,7 @@
         <v>576042744</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>9</v>
       </c>
@@ -1369,7 +1373,7 @@
         <v>283036343</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>9</v>
       </c>
@@ -1395,7 +1399,7 @@
         <v>389859000</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>9</v>
       </c>
@@ -1421,7 +1425,7 @@
         <v>564635957</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>9</v>
       </c>
@@ -1447,7 +1451,7 @@
         <v>278782101</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>9</v>
       </c>
@@ -1473,7 +1477,7 @@
         <v>384637674</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>9</v>
       </c>
@@ -1499,7 +1503,7 @@
         <v>553134113</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>9</v>
       </c>
@@ -1525,7 +1529,7 @@
         <v>274492754</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>9</v>
       </c>
@@ -1551,7 +1555,7 @@
         <v>379327095</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>9</v>
       </c>
@@ -1577,7 +1581,7 @@
         <v>541537213</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>9</v>
       </c>
@@ -1603,7 +1607,7 @@
         <v>270168300</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
         <v>9</v>
       </c>
@@ -1629,7 +1633,7 @@
         <v>373927262</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
         <v>9</v>
       </c>
@@ -1655,7 +1659,7 @@
         <v>529845256</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
         <v>9</v>
       </c>
@@ -1681,7 +1685,7 @@
         <v>265808741</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
         <v>9</v>
       </c>
@@ -1707,7 +1711,7 @@
         <v>368438176</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
         <v>9</v>
       </c>
@@ -1733,7 +1737,7 @@
         <v>518058243</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
         <v>9</v>
       </c>
@@ -1759,7 +1763,7 @@
         <v>261414076</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
         <v>9</v>
       </c>
@@ -1785,7 +1789,7 @@
         <v>362859836</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
         <v>9</v>
       </c>
@@ -1811,7 +1815,7 @@
         <v>506176173</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
         <v>9</v>
       </c>
@@ -1837,7 +1841,7 @@
         <v>256984304</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
         <v>9</v>
       </c>
@@ -1863,7 +1867,7 @@
         <v>357105965</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
         <v>9</v>
       </c>
@@ -1889,7 +1893,7 @@
         <v>494199047</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
         <v>9</v>
       </c>
@@ -1915,7 +1919,7 @@
         <v>252519427</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A57" s="2" t="s">
         <v>9</v>
       </c>
@@ -1941,7 +1945,7 @@
         <v>351175074</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A58" s="2" t="s">
         <v>9</v>
       </c>
@@ -1967,7 +1971,7 @@
         <v>482126864</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A59" s="2" t="s">
         <v>9</v>
       </c>
@@ -1993,7 +1997,7 @@
         <v>248019443</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A60" s="2" t="s">
         <v>9</v>
       </c>
@@ -2019,7 +2023,7 @@
         <v>345065677</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A61" s="2" t="s">
         <v>9</v>
       </c>
@@ -2045,7 +2049,7 @@
         <v>469959625</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A62" s="2" t="s">
         <v>9</v>
       </c>
@@ -2071,7 +2075,7 @@
         <v>243484354</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A63" s="2" t="s">
         <v>9</v>
       </c>
@@ -2097,7 +2101,7 @@
         <v>338776285</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A64" s="2" t="s">
         <v>9</v>
       </c>
@@ -2123,7 +2127,7 @@
         <v>457697329</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A65" s="2" t="s">
         <v>9</v>
       </c>
@@ -2149,7 +2153,7 @@
         <v>238914158</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A66" s="2" t="s">
         <v>9</v>
       </c>
@@ -2175,7 +2179,7 @@
         <v>332305411</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A67" s="2" t="s">
         <v>9</v>
       </c>
@@ -2201,7 +2205,7 @@
         <v>445339976</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A68" s="2" t="s">
         <v>9</v>
       </c>
@@ -2227,7 +2231,7 @@
         <v>234219083</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A69" s="2" t="s">
         <v>9</v>
       </c>
@@ -2253,7 +2257,7 @@
         <v>325651567</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A70" s="2" t="s">
         <v>9</v>
       </c>
@@ -2279,7 +2283,7 @@
         <v>432887567</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A71" s="2" t="s">
         <v>9</v>
       </c>
@@ -2305,7 +2309,7 @@
         <v>229398251</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A72" s="2" t="s">
         <v>9</v>
       </c>
@@ -2331,7 +2335,7 @@
         <v>318813266</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A73" s="2" t="s">
         <v>9</v>
       </c>
@@ -2357,7 +2361,7 @@
         <v>420340101</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
         <v>9</v>
       </c>
@@ -2383,7 +2387,7 @@
         <v>224450784</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A75" s="2" t="s">
         <v>9</v>
       </c>
@@ -2409,7 +2413,7 @@
         <v>311789021</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A76" s="2" t="s">
         <v>9</v>
       </c>
@@ -2435,7 +2439,7 @@
         <v>407697579</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A77" s="2" t="s">
         <v>9</v>
       </c>
@@ -2461,7 +2465,7 @@
         <v>231990000</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A78" s="2" t="s">
         <v>9</v>
       </c>
@@ -2487,7 +2491,7 @@
         <v>322100000</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A79" s="2" t="s">
         <v>9</v>
       </c>
@@ -2513,7 +2517,7 @@
         <v>394960000</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A80" s="2" t="s">
         <v>9</v>
       </c>
@@ -2539,7 +2543,7 @@
         <v>214172435</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A81" s="2" t="s">
         <v>9</v>
       </c>
@@ -2565,7 +2569,7 @@
         <v>297176747</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A82" s="2" t="s">
         <v>9</v>
       </c>
@@ -2591,7 +2595,7 @@
         <v>382127365</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A83" s="2" t="s">
         <v>9</v>
       </c>
@@ -2617,7 +2621,7 @@
         <v>208839797</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A84" s="2" t="s">
         <v>9</v>
       </c>
@@ -2643,7 +2647,7 @@
         <v>289585742</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A85" s="2" t="s">
         <v>9</v>
       </c>
@@ -2669,7 +2673,7 @@
         <v>369199673</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A86" s="2" t="s">
         <v>9</v>
       </c>
@@ -2695,7 +2699,7 @@
         <v>203377014</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A87" s="2" t="s">
         <v>9</v>
       </c>
@@ -2721,7 +2725,7 @@
         <v>281802842</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A88" s="2" t="s">
         <v>9</v>
       </c>
@@ -2747,7 +2751,7 @@
         <v>356176924</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A89" s="2" t="s">
         <v>9</v>
       </c>
@@ -2773,7 +2777,7 @@
         <v>197783208</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A90" s="2" t="s">
         <v>9</v>
       </c>
@@ -2799,7 +2803,7 @@
         <v>273826561</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A91" s="2" t="s">
         <v>9</v>
       </c>
@@ -2825,7 +2829,7 @@
         <v>343059119</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A92" s="2" t="s">
         <v>9</v>
       </c>
@@ -2851,7 +2855,7 @@
         <v>192057502</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A93" s="2" t="s">
         <v>9</v>
       </c>
@@ -2877,7 +2881,7 @@
         <v>265655409</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A94" s="2" t="s">
         <v>9</v>
       </c>
@@ -2903,7 +2907,7 @@
         <v>329846258</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A95" s="2" t="s">
         <v>9</v>
       </c>
@@ -2929,7 +2933,7 @@
         <v>186199017</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A96" s="2" t="s">
         <v>9</v>
       </c>
@@ -2955,7 +2959,7 @@
         <v>257287899</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A97" s="2" t="s">
         <v>9</v>
       </c>
@@ -2981,7 +2985,7 @@
         <v>440195793</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A98" s="2" t="s">
         <v>9</v>
       </c>
@@ -3007,7 +3011,7 @@
         <v>180299574</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A99" s="2" t="s">
         <v>9</v>
       </c>
@@ -3033,7 +3037,7 @@
         <v>248816261</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A100" s="2" t="s">
         <v>9</v>
       </c>
@@ -3059,7 +3063,7 @@
         <v>425303597</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A101" s="2" t="s">
         <v>9</v>
       </c>
@@ -3085,7 +3089,7 @@
         <v>174359175</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A102" s="2" t="s">
         <v>9</v>
       </c>
@@ -3111,7 +3115,7 @@
         <v>240240493</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A103" s="2" t="s">
         <v>9</v>
       </c>
@@ -3137,7 +3141,7 @@
         <v>410301899</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A104" s="2" t="s">
         <v>9</v>
       </c>
@@ -3163,7 +3167,7 @@
         <v>168377819</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A105" s="2" t="s">
         <v>9</v>
       </c>
@@ -3189,7 +3193,7 @@
         <v>231560597</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A106" s="2" t="s">
         <v>9</v>
       </c>
@@ -3215,7 +3219,7 @@
         <v>395190700</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A107" s="2" t="s">
         <v>9</v>
       </c>
@@ -3241,7 +3245,7 @@
         <v>153020000</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A108" s="2" t="s">
         <v>9</v>
       </c>
@@ -3267,7 +3271,7 @@
         <v>209960000</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A109" s="2" t="s">
         <v>9</v>
       </c>
@@ -3293,7 +3297,7 @@
         <v>379970000</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A110" s="2" t="s">
         <v>9</v>
       </c>
@@ -3319,7 +3323,7 @@
         <v>156292236</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A111" s="2" t="s">
         <v>9</v>
       </c>
@@ -3345,7 +3349,7 @@
         <v>264420596</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A112" s="2" t="s">
         <v>9</v>
       </c>
@@ -3371,7 +3375,7 @@
         <v>385134346</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A113" s="2" t="s">
         <v>9</v>
       </c>
@@ -3397,7 +3401,7 @@
         <v>150188009</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A114" s="2" t="s">
         <v>9</v>
       </c>
@@ -3423,7 +3427,7 @@
         <v>254361116</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A115" s="2" t="s">
         <v>9</v>
       </c>
@@ -3449,7 +3453,7 @@
         <v>372104925</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A116" s="2" t="s">
         <v>9</v>
       </c>
@@ -3475,7 +3479,7 @@
         <v>144042824</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A117" s="2" t="s">
         <v>9</v>
       </c>
@@ -3501,7 +3505,7 @@
         <v>244301637</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A118" s="2" t="s">
         <v>9</v>
       </c>
@@ -3527,7 +3531,7 @@
         <v>358979700</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A119" s="2" t="s">
         <v>9</v>
       </c>
@@ -3553,7 +3557,7 @@
         <v>137856683</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A120" s="2" t="s">
         <v>9</v>
       </c>
@@ -3579,7 +3583,7 @@
         <v>234242158</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A121" s="2" t="s">
         <v>9</v>
       </c>
@@ -3605,7 +3609,7 @@
         <v>345758670</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A122" s="2" t="s">
         <v>9</v>
       </c>
@@ -3631,7 +3635,7 @@
         <v>131629585</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A123" s="2" t="s">
         <v>9</v>
       </c>
@@ -3657,7 +3661,7 @@
         <v>224182679</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A124" s="2" t="s">
         <v>9</v>
       </c>
@@ -3683,7 +3687,7 @@
         <v>332441836</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A125" s="2" t="s">
         <v>9</v>
       </c>
@@ -3709,7 +3713,7 @@
         <v>155055379</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A126" s="2" t="s">
         <v>9</v>
       </c>
@@ -3735,7 +3739,7 @@
         <v>208745641</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A127" s="2" t="s">
         <v>9</v>
       </c>
@@ -3755,7 +3759,7 @@
         <v>697686</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A128" s="2" t="s">
         <v>9</v>
       </c>
@@ -3781,7 +3785,7 @@
         <v>148536534</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A129" s="2" t="s">
         <v>9</v>
       </c>
@@ -3807,7 +3811,7 @@
         <v>200804231</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A130" s="2" t="s">
         <v>9</v>
       </c>
@@ -3827,7 +3831,7 @@
         <v>674083</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A131" s="2" t="s">
         <v>9</v>
       </c>
@@ -3853,7 +3857,7 @@
         <v>142017690</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A132" s="2" t="s">
         <v>9</v>
       </c>
@@ -3879,7 +3883,7 @@
         <v>192862821</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A133" s="2" t="s">
         <v>9</v>
       </c>
@@ -3899,7 +3903,7 @@
         <v>650306</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A134" s="2" t="s">
         <v>9</v>
       </c>
@@ -3925,7 +3929,7 @@
         <v>135498845</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A135" s="2" t="s">
         <v>9</v>
       </c>
@@ -3951,7 +3955,7 @@
         <v>184921410</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A136" s="2" t="s">
         <v>9</v>
       </c>
@@ -3971,7 +3975,7 @@
         <v>626355</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A137" s="2" t="s">
         <v>9</v>
       </c>
@@ -3997,7 +4001,7 @@
         <v>128980000</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A138" s="2" t="s">
         <v>9</v>
       </c>
@@ -4023,7 +4027,7 @@
         <v>176980000</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A139" s="2" t="s">
         <v>9</v>
       </c>
@@ -4037,7 +4041,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A140" s="2" t="s">
         <v>9</v>
       </c>
@@ -4063,7 +4067,7 @@
         <v>159514598</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A141" s="2" t="s">
         <v>9</v>
       </c>
@@ -4089,7 +4093,7 @@
         <v>264420596</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A142" s="2" t="s">
         <v>9</v>
       </c>
@@ -4106,7 +4110,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A143" s="2" t="s">
         <v>9</v>
       </c>
@@ -4132,7 +4136,7 @@
         <v>152808279</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A144" s="2" t="s">
         <v>9</v>
       </c>
@@ -4158,7 +4162,7 @@
         <v>254361116</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A145" s="2" t="s">
         <v>9</v>
       </c>
@@ -4175,7 +4179,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A146" s="2" t="s">
         <v>9</v>
       </c>
@@ -4201,7 +4205,7 @@
         <v>146101960</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A147" s="2" t="s">
         <v>9</v>
       </c>
@@ -4227,7 +4231,7 @@
         <v>244301637</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A148" s="2" t="s">
         <v>9</v>
       </c>
@@ -4244,7 +4248,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A149" s="2" t="s">
         <v>9</v>
       </c>
@@ -4270,7 +4274,7 @@
         <v>139395640</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A150" s="2" t="s">
         <v>9</v>
       </c>
@@ -4296,7 +4300,7 @@
         <v>234242158</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A151" s="2" t="s">
         <v>9</v>
       </c>
@@ -4313,7 +4317,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A152" s="2" t="s">
         <v>9</v>
       </c>
@@ -4339,7 +4343,7 @@
         <v>132689321</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A153" s="2" t="s">
         <v>9</v>
       </c>
@@ -4365,7 +4369,7 @@
         <v>224182679</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A154" s="2" t="s">
         <v>9</v>
       </c>
@@ -4382,7 +4386,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A155" s="2" t="s">
         <v>9</v>
       </c>
@@ -4408,7 +4412,7 @@
         <v>159514598</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A156" s="2" t="s">
         <v>9</v>
       </c>
@@ -4425,7 +4429,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A157" s="2" t="s">
         <v>9</v>
       </c>
@@ -4442,7 +4446,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A158" s="2" t="s">
         <v>9</v>
       </c>
@@ -4468,7 +4472,7 @@
         <v>152808279</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A159" s="2" t="s">
         <v>9</v>
       </c>
@@ -4485,7 +4489,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A160" s="2" t="s">
         <v>9</v>
       </c>
@@ -4502,7 +4506,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A161" s="2" t="s">
         <v>9</v>
       </c>
@@ -4528,7 +4532,7 @@
         <v>146101960</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A162" s="2" t="s">
         <v>9</v>
       </c>
@@ -4545,7 +4549,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A163" s="2" t="s">
         <v>9</v>
       </c>
@@ -4562,7 +4566,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A164" s="2" t="s">
         <v>9</v>
       </c>
@@ -4588,7 +4592,7 @@
         <v>139395640</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A165" s="2" t="s">
         <v>9</v>
       </c>
@@ -4605,7 +4609,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A166" s="2" t="s">
         <v>9</v>
       </c>
@@ -4622,7 +4626,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A167" s="2" t="s">
         <v>9</v>
       </c>
@@ -4648,7 +4652,7 @@
         <v>132689321</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A168" s="2" t="s">
         <v>9</v>
       </c>
@@ -4665,7 +4669,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A169" s="2" t="s">
         <v>9</v>
       </c>
@@ -4682,7 +4686,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A170" s="2" t="s">
         <v>10</v>
       </c>
@@ -4708,7 +4712,7 @@
         <v>312608464</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A171" s="2" t="s">
         <v>10</v>
       </c>
@@ -4734,7 +4738,7 @@
         <v>-375941548</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A172" s="2" t="s">
         <v>10</v>
       </c>
@@ -4760,7 +4764,7 @@
         <v>655461805</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A173" s="2" t="s">
         <v>10</v>
       </c>
@@ -4786,7 +4790,7 @@
         <v>308863838</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A174" s="2" t="s">
         <v>10</v>
       </c>
@@ -4812,7 +4816,7 @@
         <v>-345939168</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A175" s="2" t="s">
         <v>10</v>
       </c>
@@ -4838,7 +4842,7 @@
         <v>644627726</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A176" s="2" t="s">
         <v>10</v>
       </c>
@@ -4864,7 +4868,7 @@
         <v>305087336</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A177" s="2" t="s">
         <v>10</v>
       </c>
@@ -4890,7 +4894,7 @@
         <v>-316712113</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A178" s="2" t="s">
         <v>10</v>
       </c>
@@ -4916,7 +4920,7 @@
         <v>633793646</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A179" s="2" t="s">
         <v>10</v>
       </c>
@@ -4942,7 +4946,7 @@
         <v>301278956</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A180" s="2" t="s">
         <v>10</v>
       </c>
@@ -4968,7 +4972,7 @@
         <v>-288260383</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A181" s="2" t="s">
         <v>10</v>
       </c>
@@ -4994,7 +4998,7 @@
         <v>622959567</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A182" s="2" t="s">
         <v>10</v>
       </c>
@@ -5020,7 +5024,7 @@
         <v>297438700</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A183" s="2" t="s">
         <v>10</v>
       </c>
@@ -5046,7 +5050,7 @@
         <v>-260583976</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A184" s="2" t="s">
         <v>10</v>
       </c>
@@ -5072,7 +5076,7 @@
         <v>612125487</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A185" s="2" t="s">
         <v>10</v>
       </c>
@@ -5098,7 +5102,7 @@
         <v>293566568</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A186" s="2" t="s">
         <v>10</v>
       </c>
@@ -5124,7 +5128,7 @@
         <v>-233682894</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A187" s="2" t="s">
         <v>10</v>
       </c>
@@ -5150,7 +5154,7 @@
         <v>601291408</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A188" s="2" t="s">
         <v>10</v>
       </c>
@@ -5176,7 +5180,7 @@
         <v>289662559</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A189" s="2" t="s">
         <v>10</v>
       </c>
@@ -5202,7 +5206,7 @@
         <v>-207557136</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A190" s="2" t="s">
         <v>10</v>
       </c>
@@ -5228,7 +5232,7 @@
         <v>590457329</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A191" s="2" t="s">
         <v>10</v>
       </c>
@@ -5254,7 +5258,7 @@
         <v>285726673</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A192" s="2" t="s">
         <v>10</v>
       </c>
@@ -5280,7 +5284,7 @@
         <v>-182206703</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A193" s="2" t="s">
         <v>10</v>
       </c>
@@ -5306,7 +5310,7 @@
         <v>579623249</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A194" s="2" t="s">
         <v>10</v>
       </c>
@@ -5332,7 +5336,7 @@
         <v>281758910</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A195" s="2" t="s">
         <v>10</v>
       </c>
@@ -5358,7 +5362,7 @@
         <v>-157631593</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A196" s="2" t="s">
         <v>10</v>
       </c>
@@ -5384,7 +5388,7 @@
         <v>568789170</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A197" s="2" t="s">
         <v>10</v>
       </c>
@@ -5410,7 +5414,7 @@
         <v>277759271</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A198" s="2" t="s">
         <v>10</v>
       </c>
@@ -5436,7 +5440,7 @@
         <v>-133831808</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A199" s="2" t="s">
         <v>10</v>
       </c>
@@ -5462,7 +5466,7 @@
         <v>557955090</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A200" s="2" t="s">
         <v>10</v>
       </c>
@@ -5488,7 +5492,7 @@
         <v>273727755</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A201" s="2" t="s">
         <v>10</v>
       </c>
@@ -5514,7 +5518,7 @@
         <v>-110807348</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A202" s="2" t="s">
         <v>10</v>
       </c>
@@ -5540,7 +5544,7 @@
         <v>547121011</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A203" s="2" t="s">
         <v>10</v>
       </c>
@@ -5566,7 +5570,7 @@
         <v>269664363</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A204" s="2" t="s">
         <v>10</v>
       </c>
@@ -5592,7 +5596,7 @@
         <v>-88558211</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A205" s="2" t="s">
         <v>10</v>
       </c>
@@ -5618,7 +5622,7 @@
         <v>536286931</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A206" s="2" t="s">
         <v>10</v>
       </c>
@@ -5644,7 +5648,7 @@
         <v>265569093</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A207" s="2" t="s">
         <v>10</v>
       </c>
@@ -5670,7 +5674,7 @@
         <v>-67084399</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A208" s="2" t="s">
         <v>10</v>
       </c>
@@ -5696,7 +5700,7 @@
         <v>525362568</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A209" s="2" t="s">
         <v>10</v>
       </c>
@@ -5722,7 +5726,7 @@
         <v>261441947</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A210" s="2" t="s">
         <v>10</v>
       </c>
@@ -5748,7 +5752,7 @@
         <v>-46385911</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A211" s="2" t="s">
         <v>10</v>
       </c>
@@ -5774,7 +5778,7 @@
         <v>514347921</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A212" s="2" t="s">
         <v>10</v>
       </c>
@@ -5800,7 +5804,7 @@
         <v>257282925</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A213" s="2" t="s">
         <v>10</v>
       </c>
@@ -5826,7 +5830,7 @@
         <v>-26462748</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A214" s="2" t="s">
         <v>10</v>
       </c>
@@ -5852,7 +5856,7 @@
         <v>503242989</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A215" s="2" t="s">
         <v>10</v>
       </c>
@@ -5878,7 +5882,7 @@
         <v>253092026</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A216" s="2" t="s">
         <v>10</v>
       </c>
@@ -5904,7 +5908,7 @@
         <v>-7314908</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A217" s="2" t="s">
         <v>10</v>
       </c>
@@ -5930,7 +5934,7 @@
         <v>492047774</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A218" s="2" t="s">
         <v>10</v>
       </c>
@@ -5956,7 +5960,7 @@
         <v>248869250</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A219" s="2" t="s">
         <v>10</v>
       </c>
@@ -5982,7 +5986,7 @@
         <v>20272787</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A220" s="2" t="s">
         <v>10</v>
       </c>
@@ -6008,7 +6012,7 @@
         <v>480762274</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A221" s="2" t="s">
         <v>10</v>
       </c>
@@ -6034,7 +6038,7 @@
         <v>244614597</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A222" s="2" t="s">
         <v>10</v>
       </c>
@@ -6060,7 +6064,7 @@
         <v>52522423</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A223" s="2" t="s">
         <v>10</v>
       </c>
@@ -6086,7 +6090,7 @@
         <v>469386491</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A224" s="2" t="s">
         <v>10</v>
       </c>
@@ -6112,7 +6116,7 @@
         <v>240328068</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A225" s="2" t="s">
         <v>10</v>
       </c>
@@ -6138,7 +6142,7 @@
         <v>83314214</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A226" s="2" t="s">
         <v>10</v>
       </c>
@@ -6164,7 +6168,7 @@
         <v>457920424</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A227" s="2" t="s">
         <v>10</v>
       </c>
@@ -6190,7 +6194,7 @@
         <v>236009662</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A228" s="2" t="s">
         <v>10</v>
       </c>
@@ -6216,7 +6220,7 @@
         <v>112624470</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A229" s="2" t="s">
         <v>10</v>
       </c>
@@ -6242,7 +6246,7 @@
         <v>446364072</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A230" s="2" t="s">
         <v>10</v>
       </c>
@@ -6268,7 +6272,7 @@
         <v>231659380</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A231" s="2" t="s">
         <v>10</v>
       </c>
@@ -6294,7 +6298,7 @@
         <v>140429500</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A232" s="2" t="s">
         <v>10</v>
       </c>
@@ -6320,7 +6324,7 @@
         <v>434717437</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A233" s="2" t="s">
         <v>10</v>
       </c>
@@ -6346,7 +6350,7 @@
         <v>227277221</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A234" s="2" t="s">
         <v>10</v>
       </c>
@@ -6372,7 +6376,7 @@
         <v>166705613</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A235" s="2" t="s">
         <v>10</v>
       </c>
@@ -6398,7 +6402,7 @@
         <v>422980517</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A236" s="2" t="s">
         <v>10</v>
       </c>
@@ -6424,7 +6428,7 @@
         <v>222777797</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A237" s="2" t="s">
         <v>10</v>
       </c>
@@ -6450,7 +6454,7 @@
         <v>191429116</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A238" s="2" t="s">
         <v>10</v>
       </c>
@@ -6476,7 +6480,7 @@
         <v>411153314</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A239" s="2" t="s">
         <v>10</v>
       </c>
@@ -6502,7 +6506,7 @@
         <v>218160311</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A240" s="2" t="s">
         <v>10</v>
       </c>
@@ -6528,7 +6532,7 @@
         <v>214576321</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A241" s="2" t="s">
         <v>10</v>
       </c>
@@ -6554,7 +6558,7 @@
         <v>399235827</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A242" s="2" t="s">
         <v>10</v>
       </c>
@@ -6580,7 +6584,7 @@
         <v>213423966</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A243" s="2" t="s">
         <v>10</v>
       </c>
@@ -6606,7 +6610,7 @@
         <v>236123535</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A244" s="2" t="s">
         <v>10</v>
       </c>
@@ -6632,7 +6636,7 @@
         <v>387228055</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A245" s="2" t="s">
         <v>10</v>
       </c>
@@ -6658,7 +6662,7 @@
         <v>220340000</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A246" s="2" t="s">
         <v>10</v>
       </c>
@@ -6684,7 +6688,7 @@
         <v>305930000</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A247" s="2" t="s">
         <v>10</v>
       </c>
@@ -6710,7 +6714,7 @@
         <v>375130000</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A248" s="2" t="s">
         <v>10</v>
       </c>
@@ -6736,7 +6740,7 @@
         <v>203591513</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A249" s="2" t="s">
         <v>10</v>
       </c>
@@ -6762,7 +6766,7 @@
         <v>274323226</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A250" s="2" t="s">
         <v>10</v>
       </c>
@@ -6788,7 +6792,7 @@
         <v>362941661</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A251" s="2" t="s">
         <v>10</v>
       </c>
@@ -6814,7 +6818,7 @@
         <v>198493811</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A252" s="2" t="s">
         <v>10</v>
       </c>
@@ -6840,7 +6844,7 @@
         <v>290928322</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A253" s="2" t="s">
         <v>10</v>
       </c>
@@ -6866,7 +6870,7 @@
         <v>350663037</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A254" s="2" t="s">
         <v>10</v>
       </c>
@@ -6892,7 +6896,7 @@
         <v>193274063</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A255" s="2" t="s">
         <v>10</v>
       </c>
@@ -6918,7 +6922,7 @@
         <v>305838663</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A256" s="2" t="s">
         <v>10</v>
       </c>
@@ -6944,7 +6948,7 @@
         <v>338294130</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A257" s="2" t="s">
         <v>10</v>
       </c>
@@ -6970,7 +6974,7 @@
         <v>187931471</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A258" s="2" t="s">
         <v>10</v>
       </c>
@@ -6996,7 +7000,7 @@
         <v>319030558</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A259" s="2" t="s">
         <v>10</v>
       </c>
@@ -7022,7 +7026,7 @@
         <v>325834939</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A260" s="2" t="s">
         <v>10</v>
       </c>
@@ -7048,7 +7052,7 @@
         <v>182465239</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A261" s="2" t="s">
         <v>10</v>
       </c>
@@ -7074,7 +7078,7 @@
         <v>330480316</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A262" s="2" t="s">
         <v>10</v>
       </c>
@@ -7100,7 +7104,7 @@
         <v>313285463</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A263" s="2" t="s">
         <v>10</v>
       </c>
@@ -7126,7 +7130,7 @@
         <v>176874570</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A264" s="2" t="s">
         <v>10</v>
       </c>
@@ -7152,7 +7156,7 @@
         <v>340164246</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A265" s="2" t="s">
         <v>10</v>
       </c>
@@ -7178,7 +7182,7 @@
         <v>422992046</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A266" s="2" t="s">
         <v>10</v>
       </c>
@@ -7204,7 +7208,7 @@
         <v>171246712</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A267" s="2" t="s">
         <v>10</v>
       </c>
@@ -7230,7 +7234,7 @@
         <v>348189802</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A268" s="2" t="s">
         <v>10</v>
       </c>
@@ -7256,7 +7260,7 @@
         <v>408681867</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A269" s="2" t="s">
         <v>10</v>
       </c>
@@ -7282,7 +7286,7 @@
         <v>165581664</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A270" s="2" t="s">
         <v>10</v>
       </c>
@@ -7308,7 +7312,7 @@
         <v>354556984</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A271" s="2" t="s">
         <v>10</v>
       </c>
@@ -7334,7 +7338,7 @@
         <v>394266467</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A272" s="2" t="s">
         <v>10</v>
       </c>
@@ -7360,7 +7364,7 @@
         <v>159879427</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A273" s="2" t="s">
         <v>10</v>
       </c>
@@ -7386,7 +7390,7 @@
         <v>359265792</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A274" s="2" t="s">
         <v>10</v>
       </c>
@@ -7412,7 +7416,7 @@
         <v>379745844</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A275" s="2" t="s">
         <v>10</v>
       </c>
@@ -7438,7 +7442,7 @@
         <v>145440000</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A276" s="2" t="s">
         <v>10</v>
       </c>
@@ -7464,7 +7468,7 @@
         <v>291730000</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A277" s="2" t="s">
         <v>10</v>
       </c>
@@ -7490,7 +7494,7 @@
         <v>365120000</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A278" s="2" t="s">
         <v>10</v>
       </c>
@@ -7516,7 +7520,7 @@
         <v>148363384</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A279" s="2" t="s">
         <v>10</v>
       </c>
@@ -7542,7 +7546,7 @@
         <v>264420596</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A280" s="2" t="s">
         <v>10</v>
       </c>
@@ -7568,7 +7572,7 @@
         <v>385134346</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A281" s="2" t="s">
         <v>10</v>
       </c>
@@ -7594,7 +7598,7 @@
         <v>142549578</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A282" s="2" t="s">
         <v>10</v>
       </c>
@@ -7620,7 +7624,7 @@
         <v>254361116</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A283" s="2" t="s">
         <v>10</v>
       </c>
@@ -7646,7 +7650,7 @@
         <v>372104925</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A284" s="2" t="s">
         <v>10</v>
       </c>
@@ -7672,7 +7676,7 @@
         <v>136698583</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A285" s="2" t="s">
         <v>10</v>
       </c>
@@ -7698,7 +7702,7 @@
         <v>244301637</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A286" s="2" t="s">
         <v>10</v>
       </c>
@@ -7724,7 +7728,7 @@
         <v>358979700</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A287" s="2" t="s">
         <v>10</v>
       </c>
@@ -7750,7 +7754,7 @@
         <v>130810399</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A288" s="2" t="s">
         <v>10</v>
       </c>
@@ -7776,7 +7780,7 @@
         <v>234242158</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A289" s="2" t="s">
         <v>10</v>
       </c>
@@ -7802,7 +7806,7 @@
         <v>345758670</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A290" s="2" t="s">
         <v>10</v>
       </c>
@@ -7828,7 +7832,7 @@
         <v>124885025</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A291" s="2" t="s">
         <v>10</v>
       </c>
@@ -7854,7 +7858,7 @@
         <v>224182679</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A292" s="2" t="s">
         <v>10</v>
       </c>
@@ -7880,7 +7884,7 @@
         <v>332441836</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A293" s="2" t="s">
         <v>10</v>
       </c>
@@ -7906,7 +7910,7 @@
         <v>148996462</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A294" s="2" t="s">
         <v>10</v>
       </c>
@@ -7926,7 +7930,7 @@
         <v>479008</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A295" s="2" t="s">
         <v>10</v>
       </c>
@@ -7946,7 +7950,7 @@
         <v>697686</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A296" s="2" t="s">
         <v>10</v>
       </c>
@@ -7972,7 +7976,7 @@
         <v>142732347</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A297" s="2" t="s">
         <v>10</v>
       </c>
@@ -7992,7 +7996,7 @@
         <v>460785</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A298" s="2" t="s">
         <v>10</v>
       </c>
@@ -8012,7 +8016,7 @@
         <v>674083</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A299" s="2" t="s">
         <v>10</v>
       </c>
@@ -8038,7 +8042,7 @@
         <v>136468231</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A300" s="2" t="s">
         <v>10</v>
       </c>
@@ -8058,7 +8062,7 @@
         <v>442562</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A301" s="2" t="s">
         <v>10</v>
       </c>
@@ -8078,7 +8082,7 @@
         <v>650306</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A302" s="2" t="s">
         <v>10</v>
       </c>
@@ -8104,7 +8108,7 @@
         <v>130204116</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A303" s="2" t="s">
         <v>10</v>
       </c>
@@ -8124,7 +8128,7 @@
         <v>424339</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A304" s="2" t="s">
         <v>10</v>
       </c>
@@ -8144,7 +8148,7 @@
         <v>626355</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A305" s="2" t="s">
         <v>10</v>
       </c>
@@ -8170,7 +8174,7 @@
         <v>123940000</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A306" s="2" t="s">
         <v>10</v>
       </c>
@@ -8184,7 +8188,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A307" s="2" t="s">
         <v>10</v>
       </c>
@@ -8198,7 +8202,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A308" s="2" t="s">
         <v>10</v>
       </c>
@@ -8224,7 +8228,7 @@
         <v>159514598</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A309" s="2" t="s">
         <v>10</v>
       </c>
@@ -8250,7 +8254,7 @@
         <v>264420596</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A310" s="2" t="s">
         <v>10</v>
       </c>
@@ -8267,7 +8271,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A311" s="2" t="s">
         <v>10</v>
       </c>
@@ -8293,7 +8297,7 @@
         <v>152808279</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A312" s="2" t="s">
         <v>10</v>
       </c>
@@ -8319,7 +8323,7 @@
         <v>254361116</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A313" s="2" t="s">
         <v>10</v>
       </c>
@@ -8336,7 +8340,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A314" s="2" t="s">
         <v>10</v>
       </c>
@@ -8362,7 +8366,7 @@
         <v>146101960</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A315" s="2" t="s">
         <v>10</v>
       </c>
@@ -8388,7 +8392,7 @@
         <v>244301637</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A316" s="2" t="s">
         <v>10</v>
       </c>
@@ -8405,7 +8409,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A317" s="2" t="s">
         <v>10</v>
       </c>
@@ -8431,7 +8435,7 @@
         <v>139395640</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A318" s="2" t="s">
         <v>10</v>
       </c>
@@ -8457,7 +8461,7 @@
         <v>234242158</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A319" s="2" t="s">
         <v>10</v>
       </c>
@@ -8474,7 +8478,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A320" s="2" t="s">
         <v>10</v>
       </c>
@@ -8500,7 +8504,7 @@
         <v>132689321</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A321" s="2" t="s">
         <v>10</v>
       </c>
@@ -8526,7 +8530,7 @@
         <v>224182679</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A322" s="2" t="s">
         <v>10</v>
       </c>
@@ -8543,7 +8547,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A323" s="2" t="s">
         <v>10</v>
       </c>
@@ -8569,7 +8573,7 @@
         <v>159514598</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A324" s="2" t="s">
         <v>10</v>
       </c>
@@ -8586,7 +8590,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A325" s="2" t="s">
         <v>10</v>
       </c>
@@ -8603,7 +8607,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A326" s="2" t="s">
         <v>10</v>
       </c>
@@ -8629,7 +8633,7 @@
         <v>152808279</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A327" s="2" t="s">
         <v>10</v>
       </c>
@@ -8646,7 +8650,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A328" s="2" t="s">
         <v>10</v>
       </c>
@@ -8663,7 +8667,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A329" s="2" t="s">
         <v>10</v>
       </c>
@@ -8689,7 +8693,7 @@
         <v>146101960</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A330" s="2" t="s">
         <v>10</v>
       </c>
@@ -8706,7 +8710,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A331" s="2" t="s">
         <v>10</v>
       </c>
@@ -8723,7 +8727,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A332" s="2" t="s">
         <v>10</v>
       </c>
@@ -8749,7 +8753,7 @@
         <v>139395640</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A333" s="2" t="s">
         <v>10</v>
       </c>
@@ -8766,7 +8770,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A334" s="2" t="s">
         <v>10</v>
       </c>
@@ -8783,7 +8787,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A335" s="2" t="s">
         <v>10</v>
       </c>
@@ -8809,7 +8813,7 @@
         <v>132689321</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A336" s="2" t="s">
         <v>10</v>
       </c>
@@ -8826,7 +8830,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A337" s="2" t="s">
         <v>10</v>
       </c>
@@ -8857,19 +8861,19 @@
       <selection activeCell="D127" sqref="D127"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.19921875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.8984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.09765625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.5" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8898,7 +8902,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -8924,7 +8928,7 @@
         <v>657500000</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -8950,7 +8954,7 @@
         <v>941450000</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -8976,7 +8980,7 @@
         <v>1195550000</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -9002,7 +9006,7 @@
         <v>636960608</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -9028,7 +9032,7 @@
         <v>906694341</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -9054,7 +9058,7 @@
         <v>1166326948</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -9080,7 +9084,7 @@
         <v>626751921</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -9106,7 +9110,7 @@
         <v>892172906</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -9132,7 +9136,7 @@
         <v>1144821558</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -9158,7 +9162,7 @@
         <v>616553732</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
@@ -9184,7 +9188,7 @@
         <v>877648105</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
@@ -9210,7 +9214,7 @@
         <v>1123381236</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -9236,7 +9240,7 @@
         <v>606366042</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
@@ -9262,7 +9266,7 @@
         <v>863119937</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
@@ -9288,7 +9292,7 @@
         <v>1102005983</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
@@ -9314,7 +9318,7 @@
         <v>596188851</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
@@ -9340,7 +9344,7 @@
         <v>848588404</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
@@ -9366,7 +9370,7 @@
         <v>1080695799</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>9</v>
       </c>
@@ -9392,7 +9396,7 @@
         <v>586022158</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>9</v>
       </c>
@@ -9418,7 +9422,7 @@
         <v>834053504</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>9</v>
       </c>
@@ -9444,7 +9448,7 @@
         <v>1059450683</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>9</v>
       </c>
@@ -9470,7 +9474,7 @@
         <v>575865964</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>9</v>
       </c>
@@ -9496,7 +9500,7 @@
         <v>819515238</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>9</v>
       </c>
@@ -9522,7 +9526,7 @@
         <v>1038270636</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>9</v>
       </c>
@@ -9548,7 +9552,7 @@
         <v>565720268</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>9</v>
       </c>
@@ -9574,7 +9578,7 @@
         <v>804973606</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>9</v>
       </c>
@@ -9600,7 +9604,7 @@
         <v>1017155657</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>9</v>
       </c>
@@ -9626,7 +9630,7 @@
         <v>555585071</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>9</v>
       </c>
@@ -9652,7 +9656,7 @@
         <v>790428608</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>9</v>
       </c>
@@ -9678,7 +9682,7 @@
         <v>996105747</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>9</v>
       </c>
@@ -9704,7 +9708,7 @@
         <v>545460372</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>9</v>
       </c>
@@ -9730,7 +9734,7 @@
         <v>775880244</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>9</v>
       </c>
@@ -9756,7 +9760,7 @@
         <v>975120906</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>9</v>
       </c>
@@ -9782,7 +9786,7 @@
         <v>535346172</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>9</v>
       </c>
@@ -9808,7 +9812,7 @@
         <v>761328514</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>9</v>
       </c>
@@ -9834,7 +9838,7 @@
         <v>954201133</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>9</v>
       </c>
@@ -9860,7 +9864,7 @@
         <v>525242471</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>9</v>
       </c>
@@ -9886,7 +9890,7 @@
         <v>746773417</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>9</v>
       </c>
@@ -9912,7 +9916,7 @@
         <v>933186060</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>9</v>
       </c>
@@ -9938,7 +9942,7 @@
         <v>515149268</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>9</v>
       </c>
@@ -9964,7 +9968,7 @@
         <v>732214954</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>9</v>
       </c>
@@ -9990,7 +9994,7 @@
         <v>912076500</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>9</v>
       </c>
@@ -10016,7 +10020,7 @@
         <v>505066563</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
         <v>9</v>
       </c>
@@ -10042,7 +10046,7 @@
         <v>717653126</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
         <v>9</v>
       </c>
@@ -10068,7 +10072,7 @@
         <v>890873267</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
         <v>9</v>
       </c>
@@ -10094,7 +10098,7 @@
         <v>485250000</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
         <v>9</v>
       </c>
@@ -10120,7 +10124,7 @@
         <v>684740000</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
         <v>9</v>
       </c>
@@ -10146,7 +10150,7 @@
         <v>855470000</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
         <v>9</v>
       </c>
@@ -10172,7 +10176,7 @@
         <v>484932650</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
         <v>9</v>
       </c>
@@ -10198,7 +10202,7 @@
         <v>688519370</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
         <v>9</v>
       </c>
@@ -10224,7 +10228,7 @@
         <v>848189034</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
         <v>9</v>
       </c>
@@ -10250,7 +10254,7 @@
         <v>474881441</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
         <v>9</v>
       </c>
@@ -10276,7 +10280,7 @@
         <v>673784653</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
         <v>9</v>
       </c>
@@ -10302,7 +10306,7 @@
         <v>826709660</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
         <v>9</v>
       </c>
@@ -10328,7 +10332,7 @@
         <v>464840730</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A57" s="2" t="s">
         <v>9</v>
       </c>
@@ -10354,7 +10358,7 @@
         <v>658883725</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A58" s="2" t="s">
         <v>9</v>
       </c>
@@ -10380,7 +10384,7 @@
         <v>805139866</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A59" s="2" t="s">
         <v>9</v>
       </c>
@@ -10406,7 +10410,7 @@
         <v>454810519</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A60" s="2" t="s">
         <v>9</v>
       </c>
@@ -10432,7 +10436,7 @@
         <v>643816530</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A61" s="2" t="s">
         <v>9</v>
       </c>
@@ -10458,7 +10462,7 @@
         <v>783480466</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A62" s="2" t="s">
         <v>9</v>
       </c>
@@ -10484,7 +10488,7 @@
         <v>444790805</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A63" s="2" t="s">
         <v>9</v>
       </c>
@@ -10510,7 +10514,7 @@
         <v>628583011</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A64" s="2" t="s">
         <v>9</v>
       </c>
@@ -10536,7 +10540,7 @@
         <v>761732272</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A65" s="2" t="s">
         <v>9</v>
       </c>
@@ -10562,7 +10566,7 @@
         <v>434781591</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A66" s="2" t="s">
         <v>9</v>
       </c>
@@ -10588,7 +10592,7 @@
         <v>613183112</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A67" s="2" t="s">
         <v>9</v>
       </c>
@@ -10614,7 +10618,7 @@
         <v>739896099</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A68" s="2" t="s">
         <v>9</v>
       </c>
@@ -10640,7 +10644,7 @@
         <v>424620123</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A69" s="2" t="s">
         <v>9</v>
       </c>
@@ -10666,7 +10670,7 @@
         <v>597616777</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A70" s="2" t="s">
         <v>9</v>
       </c>
@@ -10692,7 +10696,7 @@
         <v>717972758</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A71" s="2" t="s">
         <v>9</v>
       </c>
@@ -10718,7 +10722,7 @@
         <v>414306663</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A72" s="2" t="s">
         <v>9</v>
       </c>
@@ -10744,7 +10748,7 @@
         <v>581883950</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A73" s="2" t="s">
         <v>9</v>
       </c>
@@ -10770,7 +10774,7 @@
         <v>695963065</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
         <v>9</v>
       </c>
@@ -10796,7 +10800,7 @@
         <v>403841475</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A75" s="2" t="s">
         <v>9</v>
       </c>
@@ -10822,7 +10826,7 @@
         <v>565984575</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A76" s="2" t="s">
         <v>9</v>
       </c>
@@ -10848,7 +10852,7 @@
         <v>673867831</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A77" s="2" t="s">
         <v>9</v>
       </c>
@@ -10874,7 +10878,7 @@
         <v>386650000</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A78" s="2" t="s">
         <v>9</v>
       </c>
@@ -10900,7 +10904,7 @@
         <v>536840000</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A79" s="2" t="s">
         <v>9</v>
       </c>
@@ -10926,7 +10930,7 @@
         <v>658280000</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A80" s="2" t="s">
         <v>9</v>
       </c>
@@ -10952,7 +10956,7 @@
         <v>382456964</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A81" s="2" t="s">
         <v>9</v>
       </c>
@@ -10978,7 +10982,7 @@
         <v>533685957</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A82" s="2" t="s">
         <v>9</v>
       </c>
@@ -11004,7 +11008,7 @@
         <v>629423998</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A83" s="2" t="s">
         <v>9</v>
       </c>
@@ -11030,7 +11034,7 @@
         <v>371538165</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A84" s="2" t="s">
         <v>9</v>
       </c>
@@ -11056,7 +11060,7 @@
         <v>517286601</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A85" s="2" t="s">
         <v>9</v>
       </c>
@@ -11082,7 +11086,7 @@
         <v>607077025</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A86" s="2" t="s">
         <v>9</v>
       </c>
@@ -11108,7 +11112,7 @@
         <v>360468687</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A87" s="2" t="s">
         <v>9</v>
       </c>
@@ -11134,7 +11138,7 @@
         <v>500720473</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A88" s="2" t="s">
         <v>9</v>
       </c>
@@ -11160,7 +11164,7 @@
         <v>584647765</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A89" s="2" t="s">
         <v>9</v>
       </c>
@@ -11186,7 +11190,7 @@
         <v>349248794</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A90" s="2" t="s">
         <v>9</v>
       </c>
@@ -11212,7 +11216,7 @@
         <v>483987516</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A91" s="2" t="s">
         <v>9</v>
       </c>
@@ -11238,7 +11242,7 @@
         <v>562137033</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A92" s="2" t="s">
         <v>9</v>
       </c>
@@ -11264,7 +11268,7 @@
         <v>337878746</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A93" s="2" t="s">
         <v>9</v>
       </c>
@@ -11290,7 +11294,7 @@
         <v>467087674</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A94" s="2" t="s">
         <v>9</v>
       </c>
@@ -11316,7 +11320,7 @@
         <v>539545640</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A95" s="2" t="s">
         <v>9</v>
       </c>
@@ -11342,7 +11346,7 @@
         <v>326358807</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A96" s="2" t="s">
         <v>9</v>
       </c>
@@ -11368,7 +11372,7 @@
         <v>450020892</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A97" s="2" t="s">
         <v>9</v>
       </c>
@@ -11394,7 +11398,7 @@
         <v>733655793</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A98" s="2" t="s">
         <v>9</v>
       </c>
@@ -11420,7 +11424,7 @@
         <v>314851116</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A99" s="2" t="s">
         <v>9</v>
       </c>
@@ -11446,7 +11450,7 @@
         <v>432950183</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A100" s="2" t="s">
         <v>9</v>
       </c>
@@ -11472,7 +11476,7 @@
         <v>708835597</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A101" s="2" t="s">
         <v>9</v>
       </c>
@@ -11498,7 +11502,7 @@
         <v>303355674</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A102" s="2" t="s">
         <v>9</v>
       </c>
@@ -11524,7 +11528,7 @@
         <v>415875546</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A103" s="2" t="s">
         <v>9</v>
       </c>
@@ -11550,7 +11554,7 @@
         <v>683832899</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A104" s="2" t="s">
         <v>9</v>
       </c>
@@ -11576,7 +11580,7 @@
         <v>291872480</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A105" s="2" t="s">
         <v>9</v>
       </c>
@@ -11602,7 +11606,7 @@
         <v>398796982</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A106" s="2" t="s">
         <v>9</v>
       </c>
@@ -11628,7 +11632,7 @@
         <v>658647700</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A107" s="2" t="s">
         <v>9</v>
       </c>
@@ -11654,7 +11658,7 @@
         <v>255030000</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A108" s="2" t="s">
         <v>9</v>
       </c>
@@ -11680,7 +11684,7 @@
         <v>349940000</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A109" s="2" t="s">
         <v>9</v>
       </c>
@@ -11706,7 +11710,7 @@
         <v>633280000</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A110" s="2" t="s">
         <v>9</v>
       </c>
@@ -11732,7 +11736,7 @@
         <v>268942837</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A111" s="2" t="s">
         <v>9</v>
       </c>
@@ -11758,7 +11762,7 @@
         <v>440700993</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A112" s="2" t="s">
         <v>9</v>
       </c>
@@ -11784,7 +11788,7 @@
         <v>641890576</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A113" s="2" t="s">
         <v>9</v>
       </c>
@@ -11810,7 +11814,7 @@
         <v>257496387</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A114" s="2" t="s">
         <v>9</v>
       </c>
@@ -11836,7 +11840,7 @@
         <v>423935194</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A115" s="2" t="s">
         <v>9</v>
       </c>
@@ -11862,7 +11866,7 @@
         <v>620174875</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A116" s="2" t="s">
         <v>9</v>
       </c>
@@ -11888,7 +11892,7 @@
         <v>246062187</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A117" s="2" t="s">
         <v>9</v>
       </c>
@@ -11914,7 +11918,7 @@
         <v>407169395</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A118" s="2" t="s">
         <v>9</v>
       </c>
@@ -11940,7 +11944,7 @@
         <v>598299500</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A119" s="2" t="s">
         <v>9</v>
       </c>
@@ -11966,7 +11970,7 @@
         <v>234640234</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A120" s="2" t="s">
         <v>9</v>
       </c>
@@ -11992,7 +11996,7 @@
         <v>390403597</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A121" s="2" t="s">
         <v>9</v>
       </c>
@@ -12018,7 +12022,7 @@
         <v>576264450</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A122" s="2" t="s">
         <v>9</v>
       </c>
@@ -12044,7 +12048,7 @@
         <v>223230530</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A123" s="2" t="s">
         <v>9</v>
       </c>
@@ -12070,7 +12074,7 @@
         <v>373637798</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A124" s="2" t="s">
         <v>9</v>
       </c>
@@ -12096,7 +12100,7 @@
         <v>554069726</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A125" s="2" t="s">
         <v>9</v>
       </c>
@@ -12122,7 +12126,7 @@
         <v>258429639</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A126" s="2" t="s">
         <v>9</v>
       </c>
@@ -12148,7 +12152,7 @@
         <v>347913333</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A127" s="2" t="s">
         <v>9</v>
       </c>
@@ -12168,7 +12172,7 @@
         <v>1162810</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A128" s="2" t="s">
         <v>9</v>
       </c>
@@ -12194,7 +12198,7 @@
         <v>247564729</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A129" s="2" t="s">
         <v>9</v>
       </c>
@@ -12220,7 +12224,7 @@
         <v>334677500</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A130" s="2" t="s">
         <v>9</v>
       </c>
@@ -12240,7 +12244,7 @@
         <v>1123471</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A131" s="2" t="s">
         <v>9</v>
       </c>
@@ -12266,7 +12270,7 @@
         <v>236699819</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A132" s="2" t="s">
         <v>9</v>
       </c>
@@ -12292,7 +12296,7 @@
         <v>321441667</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A133" s="2" t="s">
         <v>9</v>
       </c>
@@ -12312,7 +12316,7 @@
         <v>1083843</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A134" s="2" t="s">
         <v>9</v>
       </c>
@@ -12338,7 +12342,7 @@
         <v>225834910</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A135" s="2" t="s">
         <v>9</v>
       </c>
@@ -12364,7 +12368,7 @@
         <v>308205833</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A136" s="2" t="s">
         <v>9</v>
       </c>
@@ -12384,7 +12388,7 @@
         <v>1043926</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A137" s="2" t="s">
         <v>9</v>
       </c>
@@ -12410,7 +12414,7 @@
         <v>214970000</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A138" s="2" t="s">
         <v>9</v>
       </c>
@@ -12436,7 +12440,7 @@
         <v>294970000</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A139" s="2" t="s">
         <v>9</v>
       </c>
@@ -12450,7 +12454,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A140" s="2" t="s">
         <v>9</v>
       </c>
@@ -12476,7 +12480,7 @@
         <v>265857664</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A141" s="2" t="s">
         <v>9</v>
       </c>
@@ -12502,7 +12506,7 @@
         <v>440700993</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A142" s="2" t="s">
         <v>9</v>
       </c>
@@ -12519,7 +12523,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A143" s="2" t="s">
         <v>9</v>
       </c>
@@ -12545,7 +12549,7 @@
         <v>254680465</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A144" s="2" t="s">
         <v>9</v>
       </c>
@@ -12571,7 +12575,7 @@
         <v>423935194</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A145" s="2" t="s">
         <v>9</v>
       </c>
@@ -12588,7 +12592,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A146" s="2" t="s">
         <v>9</v>
       </c>
@@ -12614,7 +12618,7 @@
         <v>243503266</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A147" s="2" t="s">
         <v>9</v>
       </c>
@@ -12640,7 +12644,7 @@
         <v>407169395</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A148" s="2" t="s">
         <v>9</v>
       </c>
@@ -12657,7 +12661,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A149" s="2" t="s">
         <v>9</v>
       </c>
@@ -12683,7 +12687,7 @@
         <v>232326067</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A150" s="2" t="s">
         <v>9</v>
       </c>
@@ -12709,7 +12713,7 @@
         <v>390403597</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A151" s="2" t="s">
         <v>9</v>
       </c>
@@ -12726,7 +12730,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A152" s="2" t="s">
         <v>9</v>
       </c>
@@ -12752,7 +12756,7 @@
         <v>221148868</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A153" s="2" t="s">
         <v>9</v>
       </c>
@@ -12778,7 +12782,7 @@
         <v>373637798</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A154" s="2" t="s">
         <v>9</v>
       </c>
@@ -12795,7 +12799,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A155" s="2" t="s">
         <v>9</v>
       </c>
@@ -12821,7 +12825,7 @@
         <v>265857664</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A156" s="2" t="s">
         <v>9</v>
       </c>
@@ -12838,7 +12842,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A157" s="2" t="s">
         <v>9</v>
       </c>
@@ -12855,7 +12859,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A158" s="2" t="s">
         <v>9</v>
       </c>
@@ -12881,7 +12885,7 @@
         <v>254680465</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A159" s="2" t="s">
         <v>9</v>
       </c>
@@ -12898,7 +12902,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A160" s="2" t="s">
         <v>9</v>
       </c>
@@ -12915,7 +12919,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A161" s="2" t="s">
         <v>9</v>
       </c>
@@ -12941,7 +12945,7 @@
         <v>243503266</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A162" s="2" t="s">
         <v>9</v>
       </c>
@@ -12958,7 +12962,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A163" s="2" t="s">
         <v>9</v>
       </c>
@@ -12975,7 +12979,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A164" s="2" t="s">
         <v>9</v>
       </c>
@@ -13001,7 +13005,7 @@
         <v>232326067</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A165" s="2" t="s">
         <v>9</v>
       </c>
@@ -13018,7 +13022,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A166" s="2" t="s">
         <v>9</v>
       </c>
@@ -13035,7 +13039,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A167" s="2" t="s">
         <v>9</v>
       </c>
@@ -13061,7 +13065,7 @@
         <v>221148868</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A168" s="2" t="s">
         <v>9</v>
       </c>
@@ -13078,7 +13082,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A169" s="2" t="s">
         <v>9</v>
       </c>
@@ -13095,7 +13099,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A170" s="2" t="s">
         <v>10</v>
       </c>
@@ -13121,7 +13125,7 @@
         <v>624480000</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A171" s="2" t="s">
         <v>10</v>
       </c>
@@ -13147,7 +13151,7 @@
         <v>894180000</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A172" s="2" t="s">
         <v>10</v>
       </c>
@@ -13173,7 +13177,7 @@
         <v>1135510000</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A173" s="2" t="s">
         <v>10</v>
       </c>
@@ -13199,7 +13203,7 @@
         <v>604826252</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A174" s="2" t="s">
         <v>10</v>
       </c>
@@ -13225,7 +13229,7 @@
         <v>861039970</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A175" s="2" t="s">
         <v>10</v>
       </c>
@@ -13251,7 +13255,7 @@
         <v>1107811411</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A176" s="2" t="s">
         <v>10</v>
       </c>
@@ -13277,7 +13281,7 @@
         <v>595142757</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A177" s="2" t="s">
         <v>10</v>
       </c>
@@ -13303,7 +13307,7 @@
         <v>847273005</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A178" s="2" t="s">
         <v>10</v>
       </c>
@@ -13329,7 +13333,7 @@
         <v>1087390984</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A179" s="2" t="s">
         <v>10</v>
       </c>
@@ -13355,7 +13359,7 @@
         <v>585468911</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A180" s="2" t="s">
         <v>10</v>
       </c>
@@ -13381,7 +13385,7 @@
         <v>833502079</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A181" s="2" t="s">
         <v>10</v>
       </c>
@@ -13407,7 +13411,7 @@
         <v>1067032155</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A182" s="2" t="s">
         <v>10</v>
       </c>
@@ -13433,7 +13437,7 @@
         <v>575804714</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A183" s="2" t="s">
         <v>10</v>
       </c>
@@ -13459,7 +13463,7 @@
         <v>819727194</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A184" s="2" t="s">
         <v>10</v>
       </c>
@@ -13485,7 +13489,7 @@
         <v>1046734925</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A185" s="2" t="s">
         <v>10</v>
       </c>
@@ -13511,7 +13515,7 @@
         <v>566150165</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A186" s="2" t="s">
         <v>10</v>
       </c>
@@ -13537,7 +13541,7 @@
         <v>805948349</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A187" s="2" t="s">
         <v>10</v>
       </c>
@@ -13563,7 +13567,7 @@
         <v>1026499292</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A188" s="2" t="s">
         <v>10</v>
       </c>
@@ -13589,7 +13593,7 @@
         <v>556505265</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A189" s="2" t="s">
         <v>10</v>
       </c>
@@ -13615,7 +13619,7 @@
         <v>792165545</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A190" s="2" t="s">
         <v>10</v>
       </c>
@@ -13641,7 +13645,7 @@
         <v>1006325258</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A191" s="2" t="s">
         <v>10</v>
       </c>
@@ -13667,7 +13671,7 @@
         <v>546870014</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A192" s="2" t="s">
         <v>10</v>
       </c>
@@ -13693,7 +13697,7 @@
         <v>778378780</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A193" s="2" t="s">
         <v>10</v>
       </c>
@@ -13719,7 +13723,7 @@
         <v>986212823</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A194" s="2" t="s">
         <v>10</v>
       </c>
@@ -13745,7 +13749,7 @@
         <v>537244411</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A195" s="2" t="s">
         <v>10</v>
       </c>
@@ -13771,7 +13775,7 @@
         <v>764588055</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A196" s="2" t="s">
         <v>10</v>
       </c>
@@ -13797,7 +13801,7 @@
         <v>966161985</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A197" s="2" t="s">
         <v>10</v>
       </c>
@@ -13823,7 +13827,7 @@
         <v>527628457</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A198" s="2" t="s">
         <v>10</v>
       </c>
@@ -13849,7 +13853,7 @@
         <v>750793371</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A199" s="2" t="s">
         <v>10</v>
       </c>
@@ -13875,7 +13879,7 @@
         <v>946172746</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A200" s="2" t="s">
         <v>10</v>
       </c>
@@ -13901,7 +13905,7 @@
         <v>518022151</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A201" s="2" t="s">
         <v>10</v>
       </c>
@@ -13927,7 +13931,7 @@
         <v>736994727</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A202" s="2" t="s">
         <v>10</v>
       </c>
@@ -13953,7 +13957,7 @@
         <v>926245104</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A203" s="2" t="s">
         <v>10</v>
       </c>
@@ -13979,7 +13983,7 @@
         <v>508425494</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A204" s="2" t="s">
         <v>10</v>
       </c>
@@ -14005,7 +14009,7 @@
         <v>723192122</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A205" s="2" t="s">
         <v>10</v>
       </c>
@@ -14031,7 +14035,7 @@
         <v>906379061</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A206" s="2" t="s">
         <v>10</v>
       </c>
@@ -14057,7 +14061,7 @@
         <v>498838486</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A207" s="2" t="s">
         <v>10</v>
       </c>
@@ -14083,7 +14087,7 @@
         <v>709385558</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A208" s="2" t="s">
         <v>10</v>
       </c>
@@ -14109,7 +14113,7 @@
         <v>886422284</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A209" s="2" t="s">
         <v>10</v>
       </c>
@@ -14135,7 +14139,7 @@
         <v>489261126</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A210" s="2" t="s">
         <v>10</v>
       </c>
@@ -14161,7 +14165,7 @@
         <v>695575035</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A211" s="2" t="s">
         <v>10</v>
       </c>
@@ -14187,7 +14191,7 @@
         <v>866375543</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A212" s="2" t="s">
         <v>10</v>
       </c>
@@ -14213,7 +14217,7 @@
         <v>479693415</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A213" s="2" t="s">
         <v>10</v>
       </c>
@@ -14239,7 +14243,7 @@
         <v>681760551</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A214" s="2" t="s">
         <v>10</v>
       </c>
@@ -14265,7 +14269,7 @@
         <v>846239607</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A215" s="2" t="s">
         <v>10</v>
       </c>
@@ -14291,7 +14295,7 @@
         <v>460880000</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A216" s="2" t="s">
         <v>10</v>
       </c>
@@ -14317,7 +14321,7 @@
         <v>650350000</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A217" s="2" t="s">
         <v>10</v>
       </c>
@@ -14343,7 +14347,7 @@
         <v>812510000</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A218" s="2" t="s">
         <v>10</v>
       </c>
@@ -14369,7 +14373,7 @@
         <v>460586938</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A219" s="2" t="s">
         <v>10</v>
       </c>
@@ -14395,7 +14399,7 @@
         <v>654119704</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A220" s="2" t="s">
         <v>10</v>
       </c>
@@ -14421,7 +14425,7 @@
         <v>805703233</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A221" s="2" t="s">
         <v>10</v>
       </c>
@@ -14447,7 +14451,7 @@
         <v>451048173</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A222" s="2" t="s">
         <v>10</v>
       </c>
@@ -14473,7 +14477,7 @@
         <v>640138680</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A223" s="2" t="s">
         <v>10</v>
       </c>
@@ -14499,7 +14503,7 @@
         <v>785304335</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A224" s="2" t="s">
         <v>10</v>
       </c>
@@ -14525,7 +14529,7 @@
         <v>441519056</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A225" s="2" t="s">
         <v>10</v>
       </c>
@@ -14551,7 +14555,7 @@
         <v>625998970</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A226" s="2" t="s">
         <v>10</v>
       </c>
@@ -14577,7 +14581,7 @@
         <v>764819322</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A227" s="2" t="s">
         <v>10</v>
       </c>
@@ -14603,7 +14607,7 @@
         <v>431999588</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A228" s="2" t="s">
         <v>10</v>
       </c>
@@ -14629,7 +14633,7 @@
         <v>611700508</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A229" s="2" t="s">
         <v>10</v>
       </c>
@@ -14655,7 +14659,7 @@
         <v>744248965</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A230" s="2" t="s">
         <v>10</v>
       </c>
@@ -14681,7 +14685,7 @@
         <v>422489769</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A231" s="2" t="s">
         <v>10</v>
       </c>
@@ -14707,7 +14711,7 @@
         <v>597243228</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A232" s="2" t="s">
         <v>10</v>
       </c>
@@ -14733,7 +14737,7 @@
         <v>723594033</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A233" s="2" t="s">
         <v>10</v>
       </c>
@@ -14759,7 +14763,7 @@
         <v>412989598</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A234" s="2" t="s">
         <v>10</v>
       </c>
@@ -14785,7 +14789,7 @@
         <v>582627064</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A235" s="2" t="s">
         <v>10</v>
       </c>
@@ -14811,7 +14815,7 @@
         <v>702855297</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A236" s="2" t="s">
         <v>10</v>
       </c>
@@ -14837,7 +14841,7 @@
         <v>403344478</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A237" s="2" t="s">
         <v>10</v>
       </c>
@@ -14863,7 +14867,7 @@
         <v>567851950</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A238" s="2" t="s">
         <v>10</v>
       </c>
@@ -14889,7 +14893,7 @@
         <v>682033527</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A239" s="2" t="s">
         <v>10</v>
       </c>
@@ -14915,7 +14919,7 @@
         <v>393554651</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A240" s="2" t="s">
         <v>10</v>
       </c>
@@ -14941,7 +14945,7 @@
         <v>552917820</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A241" s="2" t="s">
         <v>10</v>
       </c>
@@ -14967,7 +14971,7 @@
         <v>661129492</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A242" s="2" t="s">
         <v>10</v>
       </c>
@@ -14993,7 +14997,7 @@
         <v>383620357</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A243" s="2" t="s">
         <v>10</v>
       </c>
@@ -15019,7 +15023,7 @@
         <v>537824608</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A244" s="2" t="s">
         <v>10</v>
       </c>
@@ -15045,7 +15049,7 @@
         <v>640143963</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A245" s="2" t="s">
         <v>10</v>
       </c>
@@ -15071,7 +15075,7 @@
         <v>367230000</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A246" s="2" t="s">
         <v>10</v>
       </c>
@@ -15097,7 +15101,7 @@
         <v>509880000</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A247" s="2" t="s">
         <v>10</v>
       </c>
@@ -15123,7 +15127,7 @@
         <v>625220000</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A248" s="2" t="s">
         <v>10</v>
       </c>
@@ -15149,7 +15153,7 @@
         <v>363319336</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A249" s="2" t="s">
         <v>10</v>
       </c>
@@ -15175,7 +15179,7 @@
         <v>507160673</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A250" s="2" t="s">
         <v>10</v>
       </c>
@@ -15201,7 +15205,7 @@
         <v>597931501</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A251" s="2" t="s">
         <v>10</v>
       </c>
@@ -15227,7 +15231,7 @@
         <v>352953091</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A252" s="2" t="s">
         <v>10</v>
       </c>
@@ -15253,7 +15257,7 @@
         <v>491589818</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A253" s="2" t="s">
         <v>10</v>
       </c>
@@ -15279,7 +15283,7 @@
         <v>576706108</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A254" s="2" t="s">
         <v>10</v>
       </c>
@@ -15305,7 +15309,7 @@
         <v>342443344</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A255" s="2" t="s">
         <v>10</v>
       </c>
@@ -15331,7 +15335,7 @@
         <v>475859618</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A256" s="2" t="s">
         <v>10</v>
       </c>
@@ -15357,7 +15361,7 @@
         <v>555402301</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A257" s="2" t="s">
         <v>10</v>
       </c>
@@ -15383,7 +15387,7 @@
         <v>331790338</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A258" s="2" t="s">
         <v>10</v>
       </c>
@@ -15409,7 +15413,7 @@
         <v>459970005</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A259" s="2" t="s">
         <v>10</v>
       </c>
@@ -15435,7 +15439,7 @@
         <v>534020849</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A260" s="2" t="s">
         <v>10</v>
       </c>
@@ -15461,7 +15465,7 @@
         <v>320994312</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A261" s="2" t="s">
         <v>10</v>
       </c>
@@ -15487,7 +15491,7 @@
         <v>443920914</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A262" s="2" t="s">
         <v>10</v>
       </c>
@@ -15513,7 +15517,7 @@
         <v>512562522</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A263" s="2" t="s">
         <v>10</v>
       </c>
@@ -15539,7 +15543,7 @@
         <v>310055508</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A264" s="2" t="s">
         <v>10</v>
       </c>
@@ -15565,7 +15569,7 @@
         <v>427712280</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A265" s="2" t="s">
         <v>10</v>
       </c>
@@ -15591,7 +15595,7 @@
         <v>704982882</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A266" s="2" t="s">
         <v>10</v>
       </c>
@@ -15617,7 +15621,7 @@
         <v>299127961</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A267" s="2" t="s">
         <v>10</v>
       </c>
@@ -15643,7 +15647,7 @@
         <v>411499025</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A268" s="2" t="s">
         <v>10</v>
       </c>
@@ -15669,7 +15673,7 @@
         <v>681132715</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A269" s="2" t="s">
         <v>10</v>
       </c>
@@ -15695,7 +15699,7 @@
         <v>288211671</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A270" s="2" t="s">
         <v>10</v>
       </c>
@@ -15721,7 +15725,7 @@
         <v>395281150</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A271" s="2" t="s">
         <v>10</v>
       </c>
@@ -15747,7 +15751,7 @@
         <v>657107179</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A272" s="2" t="s">
         <v>10</v>
       </c>
@@ -15773,7 +15777,7 @@
         <v>277306637</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A273" s="2" t="s">
         <v>10</v>
       </c>
@@ -15799,7 +15803,7 @@
         <v>379058656</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A274" s="2" t="s">
         <v>10</v>
       </c>
@@ -15825,7 +15829,7 @@
         <v>632906274</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A275" s="2" t="s">
         <v>10</v>
       </c>
@@ -15851,7 +15855,7 @@
         <v>242400000</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A276" s="2" t="s">
         <v>10</v>
       </c>
@@ -15877,7 +15881,7 @@
         <v>332610000</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A277" s="2" t="s">
         <v>10</v>
       </c>
@@ -15903,7 +15907,7 @@
         <v>608530000</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A278" s="2" t="s">
         <v>10</v>
       </c>
@@ -15929,7 +15933,7 @@
         <v>255530341</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A279" s="2" t="s">
         <v>10</v>
       </c>
@@ -15955,7 +15959,7 @@
         <v>440700993</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A280" s="2" t="s">
         <v>10</v>
       </c>
@@ -15981,7 +15985,7 @@
         <v>641890576</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A281" s="2" t="s">
         <v>10</v>
       </c>
@@ -16007,7 +16011,7 @@
         <v>244659077</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A282" s="2" t="s">
         <v>10</v>
       </c>
@@ -16033,7 +16037,7 @@
         <v>423935194</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A283" s="2" t="s">
         <v>10</v>
       </c>
@@ -16059,7 +16063,7 @@
         <v>620174875</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A284" s="2" t="s">
         <v>10</v>
       </c>
@@ -16085,7 +16089,7 @@
         <v>233799070</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A285" s="2" t="s">
         <v>10</v>
       </c>
@@ -16111,7 +16115,7 @@
         <v>407169395</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A286" s="2" t="s">
         <v>10</v>
       </c>
@@ -16137,7 +16141,7 @@
         <v>598299500</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A287" s="2" t="s">
         <v>10</v>
       </c>
@@ -16163,7 +16167,7 @@
         <v>222950320</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A288" s="2" t="s">
         <v>10</v>
       </c>
@@ -16189,7 +16193,7 @@
         <v>390403597</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A289" s="2" t="s">
         <v>10</v>
       </c>
@@ -16215,7 +16219,7 @@
         <v>576264450</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A290" s="2" t="s">
         <v>10</v>
       </c>
@@ -16241,7 +16245,7 @@
         <v>212112827</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A291" s="2" t="s">
         <v>10</v>
       </c>
@@ -16267,7 +16271,7 @@
         <v>373637798</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A292" s="2" t="s">
         <v>10</v>
       </c>
@@ -16293,7 +16297,7 @@
         <v>554069726</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A293" s="2" t="s">
         <v>10</v>
       </c>
@@ -16319,7 +16323,7 @@
         <v>248331444</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A294" s="2" t="s">
         <v>10</v>
       </c>
@@ -16345,7 +16349,7 @@
         <v>334325641</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A295" s="2" t="s">
         <v>10</v>
       </c>
@@ -16365,7 +16369,7 @@
         <v>1162810</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A296" s="2" t="s">
         <v>10</v>
       </c>
@@ -16391,7 +16395,7 @@
         <v>237891083</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A297" s="2" t="s">
         <v>10</v>
       </c>
@@ -16417,7 +16421,7 @@
         <v>321606731</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A298" s="2" t="s">
         <v>10</v>
       </c>
@@ -16437,7 +16441,7 @@
         <v>1123471</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A299" s="2" t="s">
         <v>10</v>
       </c>
@@ -16463,7 +16467,7 @@
         <v>227450722</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A300" s="2" t="s">
         <v>10</v>
       </c>
@@ -16489,7 +16493,7 @@
         <v>308887821</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A301" s="2" t="s">
         <v>10</v>
       </c>
@@ -16509,7 +16513,7 @@
         <v>1083843</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A302" s="2" t="s">
         <v>10</v>
       </c>
@@ -16535,7 +16539,7 @@
         <v>217010361</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A303" s="2" t="s">
         <v>10</v>
       </c>
@@ -16561,7 +16565,7 @@
         <v>296168910</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A304" s="2" t="s">
         <v>10</v>
       </c>
@@ -16581,7 +16585,7 @@
         <v>1043926</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A305" s="2" t="s">
         <v>10</v>
       </c>
@@ -16607,7 +16611,7 @@
         <v>206570000</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A306" s="2" t="s">
         <v>10</v>
       </c>
@@ -16633,7 +16637,7 @@
         <v>283450000</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A307" s="2" t="s">
         <v>10</v>
       </c>
@@ -16647,7 +16651,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A308" s="2" t="s">
         <v>10</v>
       </c>
@@ -16673,7 +16677,7 @@
         <v>265857664</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A309" s="2" t="s">
         <v>10</v>
       </c>
@@ -16699,7 +16703,7 @@
         <v>440700993</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A310" s="2" t="s">
         <v>10</v>
       </c>
@@ -16716,7 +16720,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A311" s="2" t="s">
         <v>10</v>
       </c>
@@ -16742,7 +16746,7 @@
         <v>254680465</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A312" s="2" t="s">
         <v>10</v>
       </c>
@@ -16768,7 +16772,7 @@
         <v>423935194</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A313" s="2" t="s">
         <v>10</v>
       </c>
@@ -16785,7 +16789,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A314" s="2" t="s">
         <v>10</v>
       </c>
@@ -16811,7 +16815,7 @@
         <v>243503266</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A315" s="2" t="s">
         <v>10</v>
       </c>
@@ -16837,7 +16841,7 @@
         <v>407169395</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A316" s="2" t="s">
         <v>10</v>
       </c>
@@ -16854,7 +16858,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A317" s="2" t="s">
         <v>10</v>
       </c>
@@ -16880,7 +16884,7 @@
         <v>232326067</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A318" s="2" t="s">
         <v>10</v>
       </c>
@@ -16906,7 +16910,7 @@
         <v>390403597</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A319" s="2" t="s">
         <v>10</v>
       </c>
@@ -16923,7 +16927,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A320" s="2" t="s">
         <v>10</v>
       </c>
@@ -16949,7 +16953,7 @@
         <v>221148868</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A321" s="2" t="s">
         <v>10</v>
       </c>
@@ -16975,7 +16979,7 @@
         <v>373637798</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A322" s="2" t="s">
         <v>10</v>
       </c>
@@ -16992,7 +16996,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A323" s="2" t="s">
         <v>10</v>
       </c>
@@ -17018,7 +17022,7 @@
         <v>265857664</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A324" s="2" t="s">
         <v>10</v>
       </c>
@@ -17035,7 +17039,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A325" s="2" t="s">
         <v>10</v>
       </c>
@@ -17052,7 +17056,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A326" s="2" t="s">
         <v>10</v>
       </c>
@@ -17078,7 +17082,7 @@
         <v>254680465</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A327" s="2" t="s">
         <v>10</v>
       </c>
@@ -17095,7 +17099,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A328" s="2" t="s">
         <v>10</v>
       </c>
@@ -17112,7 +17116,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A329" s="2" t="s">
         <v>10</v>
       </c>
@@ -17138,7 +17142,7 @@
         <v>243503266</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A330" s="2" t="s">
         <v>10</v>
       </c>
@@ -17155,7 +17159,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A331" s="2" t="s">
         <v>10</v>
       </c>
@@ -17172,7 +17176,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A332" s="2" t="s">
         <v>10</v>
       </c>
@@ -17198,7 +17202,7 @@
         <v>232326067</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A333" s="2" t="s">
         <v>10</v>
       </c>
@@ -17215,7 +17219,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A334" s="2" t="s">
         <v>10</v>
       </c>
@@ -17232,7 +17236,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A335" s="2" t="s">
         <v>10</v>
       </c>
@@ -17258,7 +17262,7 @@
         <v>221148868</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A336" s="2" t="s">
         <v>10</v>
       </c>
@@ -17275,7 +17279,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A337" s="2" t="s">
         <v>10</v>
       </c>
@@ -17306,20 +17310,20 @@
       <selection activeCell="D122" sqref="D122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.19921875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.8984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.09765625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.59765625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -17348,7 +17352,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -17374,7 +17378,7 @@
         <v>1315000000</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -17400,7 +17404,7 @@
         <v>1882910000</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -17426,7 +17430,7 @@
         <v>2391100000</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -17452,7 +17456,7 @@
         <v>1267991351</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -17478,7 +17482,7 @@
         <v>1801856937</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -17504,7 +17508,7 @@
         <v>2331276510</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -17530,7 +17534,7 @@
         <v>1247967849</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -17556,7 +17560,7 @@
         <v>1773604290</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -17582,7 +17586,7 @@
         <v>2288752562</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -17608,7 +17612,7 @@
         <v>1227955833</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
@@ -17634,7 +17638,7 @@
         <v>1745325100</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
@@ -17660,7 +17664,7 @@
         <v>2246342900</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -17686,7 +17690,7 @@
         <v>1207955305</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
@@ -17712,7 +17716,7 @@
         <v>1717019367</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
@@ -17738,7 +17742,7 @@
         <v>2204047521</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
@@ -17764,7 +17768,7 @@
         <v>1187966264</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
@@ -17790,7 +17794,7 @@
         <v>1688687092</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
@@ -17816,7 +17820,7 @@
         <v>2161866428</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>9</v>
       </c>
@@ -17842,7 +17846,7 @@
         <v>1167988710</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>9</v>
       </c>
@@ -17868,7 +17872,7 @@
         <v>1660328273</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>9</v>
       </c>
@@ -17894,7 +17898,7 @@
         <v>2119799620</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>9</v>
       </c>
@@ -17920,7 +17924,7 @@
         <v>1148022644</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>9</v>
       </c>
@@ -17946,7 +17950,7 @@
         <v>1631942911</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>9</v>
       </c>
@@ -17972,7 +17976,7 @@
         <v>2077847096</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>9</v>
       </c>
@@ -17998,7 +18002,7 @@
         <v>1128068065</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>9</v>
       </c>
@@ -18024,7 +18028,7 @@
         <v>1603531006</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>9</v>
       </c>
@@ -18050,7 +18054,7 @@
         <v>2036008857</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>9</v>
       </c>
@@ -18076,7 +18080,7 @@
         <v>1108124974</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>9</v>
       </c>
@@ -18102,7 +18106,7 @@
         <v>1575092558</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>9</v>
       </c>
@@ -18128,7 +18132,7 @@
         <v>1994284903</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>9</v>
       </c>
@@ -18154,7 +18158,7 @@
         <v>1088193369</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>9</v>
       </c>
@@ -18180,7 +18184,7 @@
         <v>1546627567</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>9</v>
       </c>
@@ -18206,7 +18210,7 @@
         <v>1952675233</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>9</v>
       </c>
@@ -18232,7 +18236,7 @@
         <v>1068273252</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>9</v>
       </c>
@@ -18258,7 +18262,7 @@
         <v>1518136033</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>9</v>
       </c>
@@ -18284,7 +18288,7 @@
         <v>1911179849</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>9</v>
       </c>
@@ -18310,7 +18314,7 @@
         <v>1048364623</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>9</v>
       </c>
@@ -18336,7 +18340,7 @@
         <v>1489617956</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>9</v>
       </c>
@@ -18362,7 +18366,7 @@
         <v>1869477478</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>9</v>
       </c>
@@ -18388,7 +18392,7 @@
         <v>1028467480</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>9</v>
       </c>
@@ -18414,7 +18418,7 @@
         <v>1461073336</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>9</v>
       </c>
@@ -18440,7 +18444,7 @@
         <v>1827569549</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>9</v>
       </c>
@@ -18466,7 +18470,7 @@
         <v>1008581825</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
         <v>9</v>
       </c>
@@ -18492,7 +18496,7 @@
         <v>1432502172</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
         <v>9</v>
       </c>
@@ -18518,7 +18522,7 @@
         <v>1785457490</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
         <v>9</v>
       </c>
@@ -18544,7 +18548,7 @@
         <v>970500000</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
         <v>9</v>
       </c>
@@ -18570,7 +18574,7 @@
         <v>1369480000</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
         <v>9</v>
       </c>
@@ -18596,7 +18600,7 @@
         <v>1710950000</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
         <v>9</v>
       </c>
@@ -18622,7 +18626,7 @@
         <v>968844977</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
         <v>9</v>
       </c>
@@ -18648,7 +18652,7 @@
         <v>1375280217</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
         <v>9</v>
       </c>
@@ -18674,7 +18678,7 @@
         <v>1700626700</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
         <v>9</v>
       </c>
@@ -18700,7 +18704,7 @@
         <v>948993784</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
         <v>9</v>
       </c>
@@ -18726,7 +18730,7 @@
         <v>1346304153</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
         <v>9</v>
       </c>
@@ -18752,7 +18756,7 @@
         <v>1657910825</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
         <v>9</v>
       </c>
@@ -18778,7 +18782,7 @@
         <v>929154078</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A57" s="2" t="s">
         <v>9</v>
       </c>
@@ -18804,7 +18808,7 @@
         <v>1316975829</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A58" s="2" t="s">
         <v>9</v>
       </c>
@@ -18830,7 +18834,7 @@
         <v>1614996534</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A59" s="2" t="s">
         <v>9</v>
       </c>
@@ -18856,7 +18860,7 @@
         <v>909325859</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A60" s="2" t="s">
         <v>9</v>
       </c>
@@ -18882,7 +18886,7 @@
         <v>1287294806</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A61" s="2" t="s">
         <v>9</v>
       </c>
@@ -18908,7 +18912,7 @@
         <v>1571885257</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A62" s="2" t="s">
         <v>9</v>
       </c>
@@ -18934,7 +18938,7 @@
         <v>889509128</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A63" s="2" t="s">
         <v>9</v>
       </c>
@@ -18960,7 +18964,7 @@
         <v>1257260639</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A64" s="2" t="s">
         <v>9</v>
       </c>
@@ -18986,7 +18990,7 @@
         <v>1528578423</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A65" s="2" t="s">
         <v>9</v>
       </c>
@@ -19012,7 +19016,7 @@
         <v>869703884</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A66" s="2" t="s">
         <v>9</v>
       </c>
@@ -19038,7 +19042,7 @@
         <v>1226872887</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A67" s="2" t="s">
         <v>9</v>
       </c>
@@ -19064,7 +19068,7 @@
         <v>1485077458</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A68" s="2" t="s">
         <v>9</v>
       </c>
@@ -19090,7 +19094,7 @@
         <v>849584492</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A69" s="2" t="s">
         <v>9</v>
       </c>
@@ -19116,7 +19120,7 @@
         <v>1196131108</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A70" s="2" t="s">
         <v>9</v>
       </c>
@@ -19142,7 +19146,7 @@
         <v>1441383793</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A71" s="2" t="s">
         <v>9</v>
       </c>
@@ -19168,7 +19172,7 @@
         <v>829151238</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A72" s="2" t="s">
         <v>9</v>
       </c>
@@ -19194,7 +19198,7 @@
         <v>1165034858</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A73" s="2" t="s">
         <v>9</v>
       </c>
@@ -19220,7 +19224,7 @@
         <v>1397498856</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
         <v>9</v>
       </c>
@@ -19246,7 +19250,7 @@
         <v>808404409</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A75" s="2" t="s">
         <v>9</v>
       </c>
@@ -19272,7 +19276,7 @@
         <v>1133583695</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A76" s="2" t="s">
         <v>9</v>
       </c>
@@ -19298,7 +19302,7 @@
         <v>1353424075</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A77" s="2" t="s">
         <v>9</v>
       </c>
@@ -19324,7 +19328,7 @@
         <v>773310000</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A78" s="2" t="s">
         <v>9</v>
       </c>
@@ -19350,7 +19354,7 @@
         <v>1073690000</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A79" s="2" t="s">
         <v>9</v>
       </c>
@@ -19376,7 +19380,7 @@
         <v>1316560000</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A80" s="2" t="s">
         <v>9</v>
       </c>
@@ -19402,7 +19406,7 @@
         <v>765971177</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A81" s="2" t="s">
         <v>9</v>
       </c>
@@ -19428,7 +19432,7 @@
         <v>1069614864</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A82" s="2" t="s">
         <v>9</v>
       </c>
@@ -19454,7 +19458,7 @@
         <v>1264710695</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A83" s="2" t="s">
         <v>9</v>
       </c>
@@ -19480,7 +19484,7 @@
         <v>744285349</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A84" s="2" t="s">
         <v>9</v>
       </c>
@@ -19506,7 +19510,7 @@
         <v>1037096310</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A85" s="2" t="s">
         <v>9</v>
       </c>
@@ -19532,7 +19536,7 @@
         <v>1220074954</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A86" s="2" t="s">
         <v>9</v>
       </c>
@@ -19558,7 +19562,7 @@
         <v>722287094</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A87" s="2" t="s">
         <v>9</v>
       </c>
@@ -19584,7 +19588,7 @@
         <v>1004221074</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A88" s="2" t="s">
         <v>9</v>
       </c>
@@ -19610,7 +19614,7 @@
         <v>1175255083</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A89" s="2" t="s">
         <v>9</v>
       </c>
@@ -19636,7 +19640,7 @@
         <v>699976702</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A90" s="2" t="s">
         <v>9</v>
       </c>
@@ -19662,7 +19666,7 @@
         <v>970988713</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A91" s="2" t="s">
         <v>9</v>
       </c>
@@ -19688,7 +19692,7 @@
         <v>1130252512</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A92" s="2" t="s">
         <v>9</v>
       </c>
@@ -19714,7 +19718,7 @@
         <v>677354458</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A93" s="2" t="s">
         <v>9</v>
       </c>
@@ -19740,7 +19744,7 @@
         <v>937398786</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A94" s="2" t="s">
         <v>9</v>
       </c>
@@ -19766,7 +19770,7 @@
         <v>1085068667</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A95" s="2" t="s">
         <v>9</v>
       </c>
@@ -19792,7 +19796,7 @@
         <v>654420649</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A96" s="2" t="s">
         <v>9</v>
       </c>
@@ -19818,7 +19822,7 @@
         <v>903450849</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A97" s="2" t="s">
         <v>9</v>
       </c>
@@ -19844,7 +19848,7 @@
         <v>1349973593</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A98" s="2" t="s">
         <v>9</v>
       </c>
@@ -19870,7 +19874,7 @@
         <v>631500243</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A99" s="2" t="s">
         <v>9</v>
       </c>
@@ -19896,7 +19900,7 @@
         <v>869471946</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A100" s="2" t="s">
         <v>9</v>
       </c>
@@ -19922,7 +19926,7 @@
         <v>1332644932</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A101" s="2" t="s">
         <v>9</v>
       </c>
@@ -19948,7 +19952,7 @@
         <v>608593239</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A102" s="2" t="s">
         <v>9</v>
       </c>
@@ -19974,7 +19978,7 @@
         <v>835462076</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A103" s="2" t="s">
         <v>9</v>
       </c>
@@ -20000,7 +20004,7 @@
         <v>1312981040</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A104" s="2" t="s">
         <v>9</v>
       </c>
@@ -20026,7 +20030,7 @@
         <v>585699636</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A105" s="2" t="s">
         <v>9</v>
       </c>
@@ -20052,7 +20056,7 @@
         <v>801421238</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A106" s="2" t="s">
         <v>9</v>
       </c>
@@ -20078,7 +20082,7 @@
         <v>1290960027</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A107" s="2" t="s">
         <v>9</v>
       </c>
@@ -20104,7 +20108,7 @@
         <v>510060000</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A108" s="2" t="s">
         <v>9</v>
       </c>
@@ -20130,7 +20134,7 @@
         <v>699880000</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A109" s="2" t="s">
         <v>9</v>
       </c>
@@ -20156,7 +20160,7 @@
         <v>1266560000</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A110" s="2" t="s">
         <v>9</v>
       </c>
@@ -20182,7 +20186,7 @@
         <v>539952637</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A111" s="2" t="s">
         <v>9</v>
       </c>
@@ -20208,7 +20212,7 @@
         <v>881401986</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A112" s="2" t="s">
         <v>9</v>
       </c>
@@ -20234,7 +20238,7 @@
         <v>1283781153</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A113" s="2" t="s">
         <v>9</v>
       </c>
@@ -20260,7 +20264,7 @@
         <v>517099240</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A114" s="2" t="s">
         <v>9</v>
       </c>
@@ -20286,7 +20290,7 @@
         <v>847870388</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A115" s="2" t="s">
         <v>9</v>
       </c>
@@ -20312,7 +20316,7 @@
         <v>1240349751</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A116" s="2" t="s">
         <v>9</v>
       </c>
@@ -20338,7 +20342,7 @@
         <v>494259244</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A117" s="2" t="s">
         <v>9</v>
       </c>
@@ -20364,7 +20368,7 @@
         <v>814338791</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A118" s="2" t="s">
         <v>9</v>
       </c>
@@ -20390,7 +20394,7 @@
         <v>1196599000</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A119" s="2" t="s">
         <v>9</v>
       </c>
@@ -20416,7 +20420,7 @@
         <v>471432651</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A120" s="2" t="s">
         <v>9</v>
       </c>
@@ -20442,7 +20446,7 @@
         <v>780807194</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A121" s="2" t="s">
         <v>9</v>
       </c>
@@ -20468,7 +20472,7 @@
         <v>1152528901</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A122" s="2" t="s">
         <v>9</v>
       </c>
@@ -20494,7 +20498,7 @@
         <v>448619460</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A123" s="2" t="s">
         <v>9</v>
       </c>
@@ -20520,7 +20524,7 @@
         <v>747275596</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A124" s="2" t="s">
         <v>9</v>
       </c>
@@ -20546,7 +20550,7 @@
         <v>1108139453</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A125" s="2" t="s">
         <v>9</v>
       </c>
@@ -20572,7 +20576,7 @@
         <v>482422782</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A126" s="2" t="s">
         <v>9</v>
       </c>
@@ -20598,7 +20602,7 @@
         <v>649462113</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A127" s="2" t="s">
         <v>9</v>
       </c>
@@ -20618,7 +20622,7 @@
         <v>2325620</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A128" s="2" t="s">
         <v>9</v>
       </c>
@@ -20644,7 +20648,7 @@
         <v>470390801</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A129" s="2" t="s">
         <v>9</v>
       </c>
@@ -20670,7 +20674,7 @@
         <v>635907323</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A130" s="2" t="s">
         <v>9</v>
       </c>
@@ -20690,7 +20694,7 @@
         <v>2246942</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A131" s="2" t="s">
         <v>9</v>
       </c>
@@ -20716,7 +20720,7 @@
         <v>457634677</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A132" s="2" t="s">
         <v>9</v>
       </c>
@@ -20742,7 +20746,7 @@
         <v>621470374</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A133" s="2" t="s">
         <v>9</v>
       </c>
@@ -20762,7 +20766,7 @@
         <v>2167686</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A134" s="2" t="s">
         <v>9</v>
       </c>
@@ -20788,7 +20792,7 @@
         <v>444154410</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A135" s="2" t="s">
         <v>9</v>
       </c>
@@ -20814,7 +20818,7 @@
         <v>606151266</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A136" s="2" t="s">
         <v>9</v>
       </c>
@@ -20834,7 +20838,7 @@
         <v>2087851</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A137" s="2" t="s">
         <v>9</v>
       </c>
@@ -20860,7 +20864,7 @@
         <v>429950000</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A138" s="2" t="s">
         <v>9</v>
       </c>
@@ -20886,7 +20890,7 @@
         <v>589950000</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A139" s="2" t="s">
         <v>9</v>
       </c>
@@ -20900,7 +20904,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A140" s="2" t="s">
         <v>9</v>
       </c>
@@ -20926,7 +20930,7 @@
         <v>531715328</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A141" s="2" t="s">
         <v>9</v>
       </c>
@@ -20952,7 +20956,7 @@
         <v>881401986</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A142" s="2" t="s">
         <v>9</v>
       </c>
@@ -20969,7 +20973,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A143" s="2" t="s">
         <v>9</v>
       </c>
@@ -20995,7 +20999,7 @@
         <v>509360930</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A144" s="2" t="s">
         <v>9</v>
       </c>
@@ -21021,7 +21025,7 @@
         <v>847870388</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A145" s="2" t="s">
         <v>9</v>
       </c>
@@ -21038,7 +21042,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A146" s="2" t="s">
         <v>9</v>
       </c>
@@ -21064,7 +21068,7 @@
         <v>487006532</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A147" s="2" t="s">
         <v>9</v>
       </c>
@@ -21090,7 +21094,7 @@
         <v>814338791</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A148" s="2" t="s">
         <v>9</v>
       </c>
@@ -21107,7 +21111,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A149" s="2" t="s">
         <v>9</v>
       </c>
@@ -21133,7 +21137,7 @@
         <v>464652134</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A150" s="2" t="s">
         <v>9</v>
       </c>
@@ -21159,7 +21163,7 @@
         <v>780807194</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A151" s="2" t="s">
         <v>9</v>
       </c>
@@ -21176,7 +21180,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A152" s="2" t="s">
         <v>9</v>
       </c>
@@ -21202,7 +21206,7 @@
         <v>442297736</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A153" s="2" t="s">
         <v>9</v>
       </c>
@@ -21228,7 +21232,7 @@
         <v>747275596</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A154" s="2" t="s">
         <v>9</v>
       </c>
@@ -21245,7 +21249,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A155" s="2" t="s">
         <v>9</v>
       </c>
@@ -21271,7 +21275,7 @@
         <v>531715328</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A156" s="2" t="s">
         <v>9</v>
       </c>
@@ -21288,7 +21292,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A157" s="2" t="s">
         <v>9</v>
       </c>
@@ -21305,7 +21309,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A158" s="2" t="s">
         <v>9</v>
       </c>
@@ -21331,7 +21335,7 @@
         <v>509360930</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A159" s="2" t="s">
         <v>9</v>
       </c>
@@ -21348,7 +21352,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A160" s="2" t="s">
         <v>9</v>
       </c>
@@ -21365,7 +21369,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A161" s="2" t="s">
         <v>9</v>
       </c>
@@ -21391,7 +21395,7 @@
         <v>487006532</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A162" s="2" t="s">
         <v>9</v>
       </c>
@@ -21408,7 +21412,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A163" s="2" t="s">
         <v>9</v>
       </c>
@@ -21425,7 +21429,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A164" s="2" t="s">
         <v>9</v>
       </c>
@@ -21451,7 +21455,7 @@
         <v>464652134</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A165" s="2" t="s">
         <v>9</v>
       </c>
@@ -21468,7 +21472,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A166" s="2" t="s">
         <v>9</v>
       </c>
@@ -21485,7 +21489,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A167" s="2" t="s">
         <v>9</v>
       </c>
@@ -21511,7 +21515,7 @@
         <v>442297736</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A168" s="2" t="s">
         <v>9</v>
       </c>
@@ -21528,7 +21532,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A169" s="2" t="s">
         <v>9</v>
       </c>
@@ -21545,7 +21549,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A170" s="2" t="s">
         <v>10</v>
       </c>
@@ -21571,7 +21575,7 @@
         <v>1248960000</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A171" s="2" t="s">
         <v>10</v>
       </c>
@@ -21597,7 +21601,7 @@
         <v>1788360000</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A172" s="2" t="s">
         <v>10</v>
       </c>
@@ -21623,7 +21627,7 @@
         <v>2271020000</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A173" s="2" t="s">
         <v>10</v>
       </c>
@@ -21649,7 +21653,7 @@
         <v>1204448069</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A174" s="2" t="s">
         <v>10</v>
       </c>
@@ -21675,7 +21679,7 @@
         <v>1711052779</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A175" s="2" t="s">
         <v>10</v>
       </c>
@@ -21701,7 +21705,7 @@
         <v>2214420526</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A176" s="2" t="s">
         <v>10</v>
       </c>
@@ -21727,7 +21731,7 @@
         <v>1185433546</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A177" s="2" t="s">
         <v>10</v>
       </c>
@@ -21753,7 +21757,7 @@
         <v>1684250452</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A178" s="2" t="s">
         <v>10</v>
       </c>
@@ -21779,7 +21783,7 @@
         <v>2174018987</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A179" s="2" t="s">
         <v>10</v>
       </c>
@@ -21805,7 +21809,7 @@
         <v>1166429760</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A180" s="2" t="s">
         <v>10</v>
       </c>
@@ -21831,7 +21835,7 @@
         <v>1657422049</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A181" s="2" t="s">
         <v>10</v>
       </c>
@@ -21857,7 +21861,7 @@
         <v>2133726317</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A182" s="2" t="s">
         <v>10</v>
       </c>
@@ -21883,7 +21887,7 @@
         <v>1147436711</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A183" s="2" t="s">
         <v>10</v>
       </c>
@@ -21909,7 +21913,7 @@
         <v>1630567571</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A184" s="2" t="s">
         <v>10</v>
       </c>
@@ -21935,7 +21939,7 @@
         <v>2093542514</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A185" s="2" t="s">
         <v>10</v>
       </c>
@@ -21961,7 +21965,7 @@
         <v>1128454399</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A186" s="2" t="s">
         <v>10</v>
       </c>
@@ -21987,7 +21991,7 @@
         <v>1603687018</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A187" s="2" t="s">
         <v>10</v>
       </c>
@@ -22013,7 +22017,7 @@
         <v>2053467579</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A188" s="2" t="s">
         <v>10</v>
       </c>
@@ -22039,7 +22043,7 @@
         <v>1109482825</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A189" s="2" t="s">
         <v>10</v>
       </c>
@@ -22065,7 +22069,7 @@
         <v>1576780389</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A190" s="2" t="s">
         <v>10</v>
       </c>
@@ -22091,7 +22095,7 @@
         <v>2013501512</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A191" s="2" t="s">
         <v>10</v>
       </c>
@@ -22117,7 +22121,7 @@
         <v>1090521989</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A192" s="2" t="s">
         <v>10</v>
       </c>
@@ -22143,7 +22147,7 @@
         <v>1549847685</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A193" s="2" t="s">
         <v>10</v>
       </c>
@@ -22169,7 +22173,7 @@
         <v>1973644313</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A194" s="2" t="s">
         <v>10</v>
       </c>
@@ -22195,7 +22199,7 @@
         <v>1071571889</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A195" s="2" t="s">
         <v>10</v>
       </c>
@@ -22221,7 +22225,7 @@
         <v>1522888906</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A196" s="2" t="s">
         <v>10</v>
       </c>
@@ -22247,7 +22251,7 @@
         <v>1933895982</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A197" s="2" t="s">
         <v>10</v>
       </c>
@@ -22273,7 +22277,7 @@
         <v>1052632527</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A198" s="2" t="s">
         <v>10</v>
       </c>
@@ -22299,7 +22303,7 @@
         <v>1495904051</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A199" s="2" t="s">
         <v>10</v>
       </c>
@@ -22325,7 +22329,7 @@
         <v>1894256519</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A200" s="2" t="s">
         <v>10</v>
       </c>
@@ -22351,7 +22355,7 @@
         <v>1033703902</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A201" s="2" t="s">
         <v>10</v>
       </c>
@@ -22377,7 +22381,7 @@
         <v>1468893121</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A202" s="2" t="s">
         <v>10</v>
       </c>
@@ -22403,7 +22407,7 @@
         <v>1854725924</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A203" s="2" t="s">
         <v>10</v>
       </c>
@@ -22429,7 +22433,7 @@
         <v>1014786014</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A204" s="2" t="s">
         <v>10</v>
       </c>
@@ -22455,7 +22459,7 @@
         <v>1441856116</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A205" s="2" t="s">
         <v>10</v>
       </c>
@@ -22481,7 +22485,7 @@
         <v>1815304197</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A206" s="2" t="s">
         <v>10</v>
       </c>
@@ -22507,7 +22511,7 @@
         <v>995878864</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A207" s="2" t="s">
         <v>10</v>
       </c>
@@ -22533,7 +22537,7 @@
         <v>1414793035</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A208" s="2" t="s">
         <v>10</v>
       </c>
@@ -22559,7 +22563,7 @@
         <v>1775686184</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A209" s="2" t="s">
         <v>10</v>
       </c>
@@ -22585,7 +22589,7 @@
         <v>976982451</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A210" s="2" t="s">
         <v>10</v>
       </c>
@@ -22611,7 +22615,7 @@
         <v>1387703879</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A211" s="2" t="s">
         <v>10</v>
       </c>
@@ -22637,7 +22641,7 @@
         <v>1735873248</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A212" s="2" t="s">
         <v>10</v>
       </c>
@@ -22663,7 +22667,7 @@
         <v>958096776</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A213" s="2" t="s">
         <v>10</v>
       </c>
@@ -22689,7 +22693,7 @@
         <v>1360588647</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A214" s="2" t="s">
         <v>10</v>
       </c>
@@ -22715,7 +22719,7 @@
         <v>1695866747</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A215" s="2" t="s">
         <v>10</v>
       </c>
@@ -22741,7 +22745,7 @@
         <v>921770000</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A216" s="2" t="s">
         <v>10</v>
       </c>
@@ -22767,7 +22771,7 @@
         <v>1300710000</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A217" s="2" t="s">
         <v>10</v>
       </c>
@@ -22793,7 +22797,7 @@
         <v>1625030000</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A218" s="2" t="s">
         <v>10</v>
       </c>
@@ -22819,7 +22823,7 @@
         <v>920357637</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A219" s="2" t="s">
         <v>10</v>
       </c>
@@ -22845,7 +22849,7 @@
         <v>1306279958</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A220" s="2" t="s">
         <v>10</v>
       </c>
@@ -22871,7 +22875,7 @@
         <v>1615278499</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A221" s="2" t="s">
         <v>10</v>
       </c>
@@ -22897,7 +22901,7 @@
         <v>901504173</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A222" s="2" t="s">
         <v>10</v>
       </c>
@@ -22923,7 +22927,7 @@
         <v>1278777543</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A223" s="2" t="s">
         <v>10</v>
       </c>
@@ -22949,7 +22953,7 @@
         <v>1574699474</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A224" s="2" t="s">
         <v>10</v>
       </c>
@@ -22975,7 +22979,7 @@
         <v>882661447</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A225" s="2" t="s">
         <v>10</v>
       </c>
@@ -23001,7 +23005,7 @@
         <v>1250939659</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A226" s="2" t="s">
         <v>10</v>
       </c>
@@ -23027,7 +23031,7 @@
         <v>1533932328</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A227" s="2" t="s">
         <v>10</v>
       </c>
@@ -23053,7 +23057,7 @@
         <v>863829458</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A228" s="2" t="s">
         <v>10</v>
       </c>
@@ -23079,7 +23083,7 @@
         <v>1222765873</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A229" s="2" t="s">
         <v>10</v>
       </c>
@@ -23105,7 +23109,7 @@
         <v>1492978422</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A230" s="2" t="s">
         <v>10</v>
       </c>
@@ -23131,7 +23135,7 @@
         <v>845008206</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A231" s="2" t="s">
         <v>10</v>
       </c>
@@ -23157,7 +23161,7 @@
         <v>1194255749</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A232" s="2" t="s">
         <v>10</v>
       </c>
@@ -23183,7 +23187,7 @@
         <v>1451839119</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A233" s="2" t="s">
         <v>10</v>
       </c>
@@ -23209,7 +23213,7 @@
         <v>826197692</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A234" s="2" t="s">
         <v>10</v>
       </c>
@@ -23235,7 +23239,7 @@
         <v>1165408854</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A235" s="2" t="s">
         <v>10</v>
       </c>
@@ -23261,7 +23265,7 @@
         <v>1410515777</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A236" s="2" t="s">
         <v>10</v>
       </c>
@@ -23287,7 +23291,7 @@
         <v>807088567</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A237" s="2" t="s">
         <v>10</v>
       </c>
@@ -23313,7 +23317,7 @@
         <v>1136224752</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A238" s="2" t="s">
         <v>10</v>
       </c>
@@ -23339,7 +23343,7 @@
         <v>1369009759</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A239" s="2" t="s">
         <v>10</v>
       </c>
@@ -23365,7 +23369,7 @@
         <v>787681100</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A240" s="2" t="s">
         <v>10</v>
       </c>
@@ -23391,7 +23395,7 @@
         <v>1106703010</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A241" s="2" t="s">
         <v>10</v>
       </c>
@@ -23417,7 +23421,7 @@
         <v>1327322426</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A242" s="2" t="s">
         <v>10</v>
       </c>
@@ -23443,7 +23447,7 @@
         <v>767975559</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A243" s="2" t="s">
         <v>10</v>
       </c>
@@ -23469,7 +23473,7 @@
         <v>1076843191</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A244" s="2" t="s">
         <v>10</v>
       </c>
@@ -23495,7 +23499,7 @@
         <v>1285455137</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A245" s="2" t="s">
         <v>10</v>
       </c>
@@ -23521,7 +23525,7 @@
         <v>734470000</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A246" s="2" t="s">
         <v>10</v>
       </c>
@@ -23547,7 +23551,7 @@
         <v>1019770000</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A247" s="2" t="s">
         <v>10</v>
       </c>
@@ -23573,7 +23577,7 @@
         <v>1250440000</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A248" s="2" t="s">
         <v>10</v>
       </c>
@@ -23599,7 +23603,7 @@
         <v>727671331</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A249" s="2" t="s">
         <v>10</v>
       </c>
@@ -23625,7 +23629,7 @@
         <v>1016107590</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A250" s="2" t="s">
         <v>10</v>
       </c>
@@ -23651,7 +23655,7 @@
         <v>1201186137</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A251" s="2" t="s">
         <v>10</v>
       </c>
@@ -23677,7 +23681,7 @@
         <v>707073180</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A252" s="2" t="s">
         <v>10</v>
       </c>
@@ -23703,7 +23707,7 @@
         <v>985230937</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A253" s="2" t="s">
         <v>10</v>
       </c>
@@ -23729,7 +23733,7 @@
         <v>1158787148</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A254" s="2" t="s">
         <v>10</v>
       </c>
@@ -23755,7 +23759,7 @@
         <v>686178029</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A255" s="2" t="s">
         <v>10</v>
       </c>
@@ -23781,7 +23785,7 @@
         <v>954014471</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A256" s="2" t="s">
         <v>10</v>
       </c>
@@ -23807,7 +23811,7 @@
         <v>1116213648</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A257" s="2" t="s">
         <v>10</v>
       </c>
@@ -23833,7 +23837,7 @@
         <v>664986146</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A258" s="2" t="s">
         <v>10</v>
       </c>
@@ -23859,7 +23863,7 @@
         <v>922457756</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A259" s="2" t="s">
         <v>10</v>
       </c>
@@ -23885,7 +23889,7 @@
         <v>1073466996</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A260" s="2" t="s">
         <v>10</v>
       </c>
@@ -23911,7 +23915,7 @@
         <v>643497801</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A261" s="2" t="s">
         <v>10</v>
       </c>
@@ -23937,7 +23941,7 @@
         <v>890560358</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A262" s="2" t="s">
         <v>10</v>
       </c>
@@ -23963,7 +23967,7 @@
         <v>1030548555</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A263" s="2" t="s">
         <v>10</v>
       </c>
@@ -23989,7 +23993,7 @@
         <v>621713260</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A264" s="2" t="s">
         <v>10</v>
       </c>
@@ -24015,7 +24019,7 @@
         <v>858321842</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A265" s="2" t="s">
         <v>10</v>
       </c>
@@ -24041,7 +24045,7 @@
         <v>1297224262</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A266" s="2" t="s">
         <v>10</v>
       </c>
@@ -24067,7 +24071,7 @@
         <v>599941247</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A267" s="2" t="s">
         <v>10</v>
       </c>
@@ -24093,7 +24097,7 @@
         <v>826052906</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A268" s="2" t="s">
         <v>10</v>
       </c>
@@ -24119,7 +24123,7 @@
         <v>1280572707</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A269" s="2" t="s">
         <v>10</v>
       </c>
@@ -24145,7 +24149,7 @@
         <v>578181761</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A270" s="2" t="s">
         <v>10</v>
       </c>
@@ -24171,7 +24175,7 @@
         <v>793753547</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A271" s="2" t="s">
         <v>10</v>
       </c>
@@ -24197,7 +24201,7 @@
         <v>1261677169</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A272" s="2" t="s">
         <v>10</v>
       </c>
@@ -24223,7 +24227,7 @@
         <v>556434801</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A273" s="2" t="s">
         <v>10</v>
       </c>
@@ -24249,7 +24253,7 @@
         <v>761423768</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A274" s="2" t="s">
         <v>10</v>
       </c>
@@ -24275,7 +24279,7 @@
         <v>1240516612</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A275" s="2" t="s">
         <v>10</v>
       </c>
@@ -24301,7 +24305,7 @@
         <v>484810000</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A276" s="2" t="s">
         <v>10</v>
       </c>
@@ -24327,7 +24331,7 @@
         <v>665230000</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A277" s="2" t="s">
         <v>10</v>
       </c>
@@ -24353,7 +24357,7 @@
         <v>1217070000</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A278" s="2" t="s">
         <v>10</v>
       </c>
@@ -24379,7 +24383,7 @@
         <v>512978462</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A279" s="2" t="s">
         <v>10</v>
       </c>
@@ -24405,7 +24409,7 @@
         <v>881401986</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A280" s="2" t="s">
         <v>10</v>
       </c>
@@ -24431,7 +24435,7 @@
         <v>1283781153</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A281" s="2" t="s">
         <v>10</v>
       </c>
@@ -24457,7 +24461,7 @@
         <v>491269083</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A282" s="2" t="s">
         <v>10</v>
       </c>
@@ -24483,7 +24487,7 @@
         <v>847870388</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A283" s="2" t="s">
         <v>10</v>
       </c>
@@ -24509,7 +24513,7 @@
         <v>1240349751</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A284" s="2" t="s">
         <v>10</v>
       </c>
@@ -24535,7 +24539,7 @@
         <v>469572231</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A285" s="2" t="s">
         <v>10</v>
       </c>
@@ -24561,7 +24565,7 @@
         <v>814338791</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A286" s="2" t="s">
         <v>10</v>
       </c>
@@ -24587,7 +24591,7 @@
         <v>1196599000</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A287" s="2" t="s">
         <v>10</v>
       </c>
@@ -24613,7 +24617,7 @@
         <v>447887906</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A288" s="2" t="s">
         <v>10</v>
       </c>
@@ -24639,7 +24643,7 @@
         <v>780807194</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A289" s="2" t="s">
         <v>10</v>
       </c>
@@ -24665,7 +24669,7 @@
         <v>1152528901</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A290" s="2" t="s">
         <v>10</v>
       </c>
@@ -24691,7 +24695,7 @@
         <v>426216108</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A291" s="2" t="s">
         <v>10</v>
       </c>
@@ -24717,7 +24721,7 @@
         <v>747275596</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A292" s="2" t="s">
         <v>10</v>
       </c>
@@ -24743,7 +24747,7 @@
         <v>1108139453</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A293" s="2" t="s">
         <v>10</v>
       </c>
@@ -24769,7 +24773,7 @@
         <v>463572444</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A294" s="2" t="s">
         <v>10</v>
       </c>
@@ -24795,7 +24799,7 @@
         <v>563538699</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A295" s="2" t="s">
         <v>10</v>
       </c>
@@ -24815,7 +24819,7 @@
         <v>2325620</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A296" s="2" t="s">
         <v>10</v>
       </c>
@@ -24841,7 +24845,7 @@
         <v>452010605</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A297" s="2" t="s">
         <v>10</v>
       </c>
@@ -24867,7 +24871,7 @@
         <v>551777199</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A298" s="2" t="s">
         <v>10</v>
       </c>
@@ -24887,7 +24891,7 @@
         <v>2246942</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A299" s="2" t="s">
         <v>10</v>
       </c>
@@ -24913,7 +24917,7 @@
         <v>439752917</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A300" s="2" t="s">
         <v>10</v>
       </c>
@@ -24939,7 +24943,7 @@
         <v>539250249</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A301" s="2" t="s">
         <v>10</v>
       </c>
@@ -24959,7 +24963,7 @@
         <v>2167686</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A302" s="2" t="s">
         <v>10</v>
       </c>
@@ -24985,7 +24989,7 @@
         <v>426799382</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A303" s="2" t="s">
         <v>10</v>
       </c>
@@ -25011,7 +25015,7 @@
         <v>525957849</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A304" s="2" t="s">
         <v>10</v>
       </c>
@@ -25031,7 +25035,7 @@
         <v>2087851</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A305" s="2" t="s">
         <v>10</v>
       </c>
@@ -25057,7 +25061,7 @@
         <v>413150000</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A306" s="2" t="s">
         <v>10</v>
       </c>
@@ -25083,7 +25087,7 @@
         <v>456900000</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A307" s="2" t="s">
         <v>10</v>
       </c>
@@ -25097,7 +25101,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A308" s="2" t="s">
         <v>10</v>
       </c>
@@ -25123,7 +25127,7 @@
         <v>531715328</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A309" s="2" t="s">
         <v>10</v>
       </c>
@@ -25149,7 +25153,7 @@
         <v>881401986</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A310" s="2" t="s">
         <v>10</v>
       </c>
@@ -25166,7 +25170,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A311" s="2" t="s">
         <v>10</v>
       </c>
@@ -25192,7 +25196,7 @@
         <v>509360930</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A312" s="2" t="s">
         <v>10</v>
       </c>
@@ -25218,7 +25222,7 @@
         <v>847870388</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A313" s="2" t="s">
         <v>10</v>
       </c>
@@ -25235,7 +25239,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A314" s="2" t="s">
         <v>10</v>
       </c>
@@ -25261,7 +25265,7 @@
         <v>487006532</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A315" s="2" t="s">
         <v>10</v>
       </c>
@@ -25287,7 +25291,7 @@
         <v>814338791</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A316" s="2" t="s">
         <v>10</v>
       </c>
@@ -25304,7 +25308,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A317" s="2" t="s">
         <v>10</v>
       </c>
@@ -25330,7 +25334,7 @@
         <v>464652134</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A318" s="2" t="s">
         <v>10</v>
       </c>
@@ -25356,7 +25360,7 @@
         <v>780807194</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A319" s="2" t="s">
         <v>10</v>
       </c>
@@ -25373,7 +25377,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A320" s="2" t="s">
         <v>10</v>
       </c>
@@ -25399,7 +25403,7 @@
         <v>442297736</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A321" s="2" t="s">
         <v>10</v>
       </c>
@@ -25425,7 +25429,7 @@
         <v>747275596</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A322" s="2" t="s">
         <v>10</v>
       </c>
@@ -25442,7 +25446,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A323" s="2" t="s">
         <v>10</v>
       </c>
@@ -25468,7 +25472,7 @@
         <v>531715328</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A324" s="2" t="s">
         <v>10</v>
       </c>
@@ -25485,7 +25489,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A325" s="2" t="s">
         <v>10</v>
       </c>
@@ -25502,7 +25506,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A326" s="2" t="s">
         <v>10</v>
       </c>
@@ -25528,7 +25532,7 @@
         <v>509360930</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A327" s="2" t="s">
         <v>10</v>
       </c>
@@ -25545,7 +25549,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A328" s="2" t="s">
         <v>10</v>
       </c>
@@ -25562,7 +25566,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A329" s="2" t="s">
         <v>10</v>
       </c>
@@ -25588,7 +25592,7 @@
         <v>487006532</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A330" s="2" t="s">
         <v>10</v>
       </c>
@@ -25605,7 +25609,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A331" s="2" t="s">
         <v>10</v>
       </c>
@@ -25622,7 +25626,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A332" s="2" t="s">
         <v>10</v>
       </c>
@@ -25648,7 +25652,7 @@
         <v>464652134</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A333" s="2" t="s">
         <v>10</v>
       </c>
@@ -25665,7 +25669,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A334" s="2" t="s">
         <v>10</v>
       </c>
@@ -25682,7 +25686,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A335" s="2" t="s">
         <v>10</v>
       </c>
@@ -25708,7 +25712,7 @@
         <v>442297736</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A336" s="2" t="s">
         <v>10</v>
       </c>
@@ -25725,7 +25729,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A337" s="2" t="s">
         <v>10</v>
       </c>

--- a/public/kdb_dream_15-70.xlsx
+++ b/public/kdb_dream_15-70.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\개미남\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C950691C-1D7B-4A3E-952A-50B6D10F9F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1D31F5-AFA6-4E09-A368-7115029EE147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26100" yWindow="24" windowWidth="25644" windowHeight="15660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30660" yWindow="432" windowWidth="25644" windowHeight="15660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="30k" sheetId="1" r:id="rId1"/>
     <sheet name="50k" sheetId="2" r:id="rId2"/>
     <sheet name="100k" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" iterateDelta="1E-4"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="15">
   <si>
     <t>성별</t>
   </si>
@@ -61,6 +61,10 @@
   </si>
   <si>
     <t>가입불가(연금개시연령 80세 초과)</t>
+  </si>
+  <si>
+    <t>20년 보증기간 총액</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>20년 보증기간 총액</t>
@@ -444,7 +448,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I337"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
@@ -8857,8 +8861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I337"/>
   <sheetViews>
-    <sheetView topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="D127" sqref="D127"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -8868,7 +8872,7 @@
     <col min="4" max="4" width="13.19921875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.8984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.796875" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.5" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
@@ -8893,7 +8897,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
